--- a/www/terminologies/CodeSystem-terminologie-nuva.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-nuva.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="3794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="3795">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.930</t>
+    <t>1.0.939</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-05T00:00:00+00:00</t>
+    <t>2025-07-03T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3269,7 +3269,7 @@
     <t>VAC0538</t>
   </si>
   <si>
-    <t>VACCIN BCG SYNTHAVERSE</t>
+    <t>VACCIN BCG BIOMED-LUBLIN</t>
   </si>
   <si>
     <t>VAC0405</t>
@@ -7247,1800 +7247,1803 @@
     <t>VAC1430</t>
   </si>
   <si>
+    <t>Vaccin Covid 19 bivalent à ARNm contre le virus originel et le variant Omicron BA.4/5, 50 microgrammes, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0498</t>
+  </si>
+  <si>
+    <t>IMOGAM RAGE</t>
+  </si>
+  <si>
+    <t>VAC1127</t>
+  </si>
+  <si>
+    <t>Immunoglobuline Hépatite A, Rougeole, Varicelle et Rubéole, sans précision</t>
+  </si>
+  <si>
+    <t>VAL229</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 33F</t>
+  </si>
+  <si>
+    <t>VAC0450</t>
+  </si>
+  <si>
+    <t>VIROVAC MASSLING, PEROTID, RUBELLA</t>
+  </si>
+  <si>
+    <t>VAC0233</t>
+  </si>
+  <si>
+    <t>FLUMIST</t>
+  </si>
+  <si>
+    <t>VAC0366</t>
+  </si>
+  <si>
+    <t>RUBELLA-KOVAX</t>
+  </si>
+  <si>
+    <t>VAC0148</t>
+  </si>
+  <si>
+    <t>Vaccin Leptospirose, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0015</t>
+  </si>
+  <si>
+    <t>INFANRIXQUINTA</t>
+  </si>
+  <si>
+    <t>VAL400</t>
+  </si>
+  <si>
+    <t>Valence typhoïde, antigène Vi conjugué à la protéine CRM197</t>
+  </si>
+  <si>
+    <t>VAC1431</t>
+  </si>
+  <si>
+    <t>Vaccin VRS, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1213</t>
+  </si>
+  <si>
+    <t>Vaccin Choléra contenant la sous-unité B recombinante de la toxine cholérique et des bactéries V. cholerae O1 entières inactivées, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0499</t>
+  </si>
+  <si>
+    <t>BENIRAB (immunoglobuline)</t>
+  </si>
+  <si>
+    <t>VAC1128</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à ADN plasmidique, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1346</t>
+  </si>
+  <si>
+    <t>FLU QUADRIVALENT MCV</t>
+  </si>
+  <si>
+    <t>VAC0451</t>
+  </si>
+  <si>
+    <t>VIVOTIF</t>
+  </si>
+  <si>
+    <t>VAL315</t>
+  </si>
+  <si>
+    <t>Valence encéphalite à tiques, entière inactivée, souche Neudörfl, dose pédiatrique</t>
+  </si>
+  <si>
+    <t>VAC0230</t>
+  </si>
+  <si>
+    <t>FLUAD</t>
+  </si>
+  <si>
+    <t>VAC0012</t>
+  </si>
+  <si>
+    <t>IMMUGRIP</t>
+  </si>
+  <si>
+    <t>VAC0363</t>
+  </si>
+  <si>
+    <t>ROTASHIELD</t>
+  </si>
+  <si>
+    <t>VAC0145</t>
+  </si>
+  <si>
+    <t>Vaccin Encéphalite à tiques, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0278</t>
+  </si>
+  <si>
+    <t>LIRUGEN</t>
+  </si>
+  <si>
+    <t>VAC0809</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque polyosidique monovalent, sans précision</t>
+  </si>
+  <si>
+    <t>VAL312</t>
+  </si>
+  <si>
+    <t>Valence encéphalite à tiques, inactivée, entière, souche K23</t>
+  </si>
+  <si>
+    <t>VAC1125</t>
+  </si>
+  <si>
+    <t>Vaccin Hépatite B, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1210</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, virus original, 100 microgrammes, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1343</t>
+  </si>
+  <si>
+    <t>BORYUNG CELL CULTURE-DERIVED JAPANESE ENCEPHALITIS VACCINE</t>
+  </si>
+  <si>
+    <t>VAC0496</t>
+  </si>
+  <si>
+    <t>GAMMATETANOS (immunoglobuline)</t>
+  </si>
+  <si>
+    <t>VAC1258</t>
+  </si>
+  <si>
+    <t>COMIRNATY JN.1 30 µg</t>
+  </si>
+  <si>
+    <t>VAL009</t>
+  </si>
+  <si>
+    <t>Valence paludisme, protéine de surface du sporozoïte</t>
+  </si>
+  <si>
+    <t>VAL227</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 22F</t>
+  </si>
+  <si>
+    <t>VAC0231</t>
+  </si>
+  <si>
+    <t>FLUKOVAX</t>
+  </si>
+  <si>
+    <t>VAC0364</t>
+  </si>
+  <si>
+    <t>RUBEATEN BERNA PRODUCTS</t>
+  </si>
+  <si>
+    <t>VAC0146</t>
+  </si>
+  <si>
+    <t>Vaccin Encéphalite Japonaise vivant atténué 14-14-2, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0013</t>
+  </si>
+  <si>
+    <t>IMOVAX POLIO</t>
+  </si>
+  <si>
+    <t>VAL313</t>
+  </si>
+  <si>
+    <t>Valence encéphalite à tiques, inactivée, entière, souche Neudörfl, dose non précisée</t>
+  </si>
+  <si>
+    <t>VAC1344</t>
+  </si>
+  <si>
+    <t>BORYUNG JAPANESE ENCEPHALITIS VACCINE</t>
+  </si>
+  <si>
+    <t>VAC1211</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque C polyosidique conjugué à la protéine CRM197, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0497</t>
+  </si>
+  <si>
+    <t>Immunoglobuline Tétanos, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1126</t>
+  </si>
+  <si>
+    <t>Vaccin pentavalent DTCeHibP - Diphtérie-Tétanos-Coqueluche-Hib PRP-Polio, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1259</t>
+  </si>
+  <si>
+    <t>COMIRNATY JN.1 10 µg</t>
+  </si>
+  <si>
+    <t>VAC0582</t>
+  </si>
+  <si>
+    <t>TRUMENBA</t>
+  </si>
+  <si>
+    <t>VAL228</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 23F</t>
+  </si>
+  <si>
+    <t>VAC0321</t>
+  </si>
+  <si>
+    <t>ORIMUNE</t>
+  </si>
+  <si>
+    <t>VAC0103</t>
+  </si>
+  <si>
+    <t>MENACTRA</t>
+  </si>
+  <si>
+    <t>VAC0236</t>
+  </si>
+  <si>
+    <t>FLUZONE HIGH-DOSE</t>
+  </si>
+  <si>
+    <t>VAC0018</t>
+  </si>
+  <si>
+    <t>MENCEVAX ACWY</t>
+  </si>
+  <si>
+    <t>VAC0369</t>
+  </si>
+  <si>
+    <t>RUBEOVAX</t>
+  </si>
+  <si>
+    <t>DIS018</t>
+  </si>
+  <si>
+    <t>Typhoïde</t>
+  </si>
+  <si>
+    <t>VAL091</t>
+  </si>
+  <si>
+    <t>Valence typhoïde, vivante atténuée, souche Ty21a, orale</t>
+  </si>
+  <si>
+    <t>VAC1301</t>
+  </si>
+  <si>
+    <t>BE Td</t>
+  </si>
+  <si>
+    <t>VAC0454</t>
+  </si>
+  <si>
+    <t>VVR CANTACUZINO</t>
+  </si>
+  <si>
+    <t>VAC1216</t>
+  </si>
+  <si>
+    <t>Vaccin quadrivalent DTCaHepB - Diphtérie-Tétanos-Coqueluche-Hépatite B 10µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1349</t>
+  </si>
+  <si>
+    <t>TY BIOMED</t>
+  </si>
+  <si>
+    <t>VAC1434</t>
+  </si>
+  <si>
+    <t>Vaccin méningocoque A, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0672</t>
+  </si>
+  <si>
+    <t>VAXINE-SPIKE-COVID</t>
+  </si>
+  <si>
+    <t>VAL318</t>
+  </si>
+  <si>
+    <t>Valence VRS, vaccin, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0890</t>
+  </si>
+  <si>
+    <t>NEOTYF</t>
+  </si>
+  <si>
+    <t>VAL403</t>
+  </si>
+  <si>
+    <t>Valence méningocoque X, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0322</t>
+  </si>
+  <si>
+    <t>PARIORIX</t>
+  </si>
+  <si>
+    <t>VAC0104</t>
+  </si>
+  <si>
+    <t>HUMENZA</t>
+  </si>
+  <si>
+    <t>DIS017</t>
+  </si>
+  <si>
+    <t>Fièvre jaune</t>
+  </si>
+  <si>
+    <t>VAC0019</t>
+  </si>
+  <si>
+    <t>MENINGITEC</t>
+  </si>
+  <si>
+    <t>VAL092</t>
+  </si>
+  <si>
+    <t>Valence fièvre jaune</t>
+  </si>
+  <si>
+    <t>VAC0673</t>
+  </si>
+  <si>
+    <t>QUEENSLAND-SPIKE-MF59-COVID</t>
+  </si>
+  <si>
+    <t>VAC1435</t>
+  </si>
+  <si>
+    <t>Vaccin rage, inactivé, entier, préparé sur culture cellulaire, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0891</t>
+  </si>
+  <si>
+    <t>PNEUMOPUR</t>
+  </si>
+  <si>
+    <t>VAC1217</t>
+  </si>
+  <si>
+    <t>Vaccin Hépatite B et Haemophilus influenzae type b, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0540</t>
+  </si>
+  <si>
+    <t>IPAD T</t>
+  </si>
+  <si>
+    <t>VAL319</t>
+  </si>
+  <si>
+    <t>Valence covid 19, vecteur viral non réplicatif, adénovirus codant la protéine de pointe du SARS-CoV-2, par inhalation</t>
+  </si>
+  <si>
+    <t>VAC1302</t>
+  </si>
+  <si>
+    <t>COMBE FIVE</t>
+  </si>
+  <si>
+    <t>VAL404</t>
+  </si>
+  <si>
+    <t>Valence méningocoque X, polyoside conjugué</t>
+  </si>
+  <si>
+    <t>VAC0234</t>
+  </si>
+  <si>
+    <t>FLUOGEN</t>
+  </si>
+  <si>
+    <t>VAC0101</t>
+  </si>
+  <si>
+    <t>Vaccin Hépatite B, recombinant, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0367</t>
+  </si>
+  <si>
+    <t>RUBELLOVAC</t>
+  </si>
+  <si>
+    <t>VAC0016</t>
+  </si>
+  <si>
+    <t>INFLUVAC</t>
+  </si>
+  <si>
+    <t>DIS016</t>
+  </si>
+  <si>
+    <t>Hépatite A</t>
+  </si>
+  <si>
+    <t>VAC0149</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque B:14:P1.7,16, sans précision</t>
+  </si>
+  <si>
+    <t>VAL401</t>
+  </si>
+  <si>
+    <t>Valence encéphalite japonaise, inactivée, dérivée de cellules Vero, 3 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC1432</t>
+  </si>
+  <si>
+    <t>Vaccin Fièvre hémorragique d'Argentine, virus Junin, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0585</t>
+  </si>
+  <si>
+    <t>Vaccin dTcaP - Diphtérie-Tétanos-Coqueluche-Polio, dose réduite, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1129</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à sous-unité protéique, protéine de pointe recombinante dans des nanoparticules, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0452</t>
+  </si>
+  <si>
+    <t>VT (VACINA TRIPLICE)</t>
+  </si>
+  <si>
+    <t>VAC1214</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, contre le variant Omicron XBB.1.5, 10µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1347</t>
+  </si>
+  <si>
+    <t>EFLUELDA</t>
+  </si>
+  <si>
+    <t>VAC0670</t>
+  </si>
+  <si>
+    <t>SPOUTNIK V</t>
+  </si>
+  <si>
+    <t>VAL316</t>
+  </si>
+  <si>
+    <t>Valence VRS, recombinante, antigène RSVPreF3 dérivé de la protéine F</t>
+  </si>
+  <si>
+    <t>VAC0320</t>
+  </si>
+  <si>
+    <t>Vaccin Poliomyélite oral trivalent, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0102</t>
+  </si>
+  <si>
+    <t>Vaccin Hépatite A inactivé, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0235</t>
+  </si>
+  <si>
+    <t>FLUVIRIN</t>
+  </si>
+  <si>
+    <t>DIS015</t>
+  </si>
+  <si>
+    <t>Grippe saisonnière</t>
+  </si>
+  <si>
+    <t>VAC0368</t>
+  </si>
+  <si>
+    <t>RUBELOGEN</t>
+  </si>
+  <si>
+    <t>VAC0017</t>
+  </si>
+  <si>
+    <t>M-M-RVAXPRO</t>
+  </si>
+  <si>
+    <t>VAL090</t>
+  </si>
+  <si>
+    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), sans précision</t>
+  </si>
+  <si>
+    <t>VAL402</t>
+  </si>
+  <si>
+    <t>Valence encéphalite japonaise, inactivée, dérivée de cellules Vero, 6 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC1300</t>
+  </si>
+  <si>
+    <t>BEVAC 20 µg</t>
+  </si>
+  <si>
+    <t>VAC1433</t>
+  </si>
+  <si>
+    <t>Vaccin peste, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0586</t>
+  </si>
+  <si>
+    <t>ERVEBO</t>
+  </si>
+  <si>
+    <t>VAC1348</t>
+  </si>
+  <si>
+    <t>TETANA</t>
+  </si>
+  <si>
+    <t>VAC0453</t>
+  </si>
+  <si>
+    <t>VTV (VACINA TRIPLICE VIRAL)</t>
+  </si>
+  <si>
+    <t>VAC0671</t>
+  </si>
+  <si>
+    <t>CLOVER-SPIKE-SCB-2019-COVID</t>
+  </si>
+  <si>
+    <t>VAC1215</t>
+  </si>
+  <si>
+    <t>Vaccin hexavalent DTCaHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib OMP-Polio-Hépatite B 10µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAL317</t>
+  </si>
+  <si>
+    <t>Valence VRS, anticorps, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0490</t>
+  </si>
+  <si>
+    <t>KINRIX</t>
+  </si>
+  <si>
+    <t>VAC0272</t>
+  </si>
+  <si>
+    <t>KAKSOISROKOTE DUBBELVACCIN</t>
+  </si>
+  <si>
+    <t>VAC0054</t>
+  </si>
+  <si>
+    <t>VACCIN RABIQUE PASTEUR</t>
+  </si>
+  <si>
+    <t>VAC0187</t>
+  </si>
+  <si>
+    <t>AMARIL</t>
+  </si>
+  <si>
+    <t>VAL095</t>
+  </si>
+  <si>
+    <t>Valence covid 19, vecteur viral réplicatif, virus de la maladie de Newcastle codant la protéine de pointe du SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>VAC0718</t>
+  </si>
+  <si>
+    <t>CIGB-66</t>
+  </si>
+  <si>
+    <t>VAC0936</t>
+  </si>
+  <si>
+    <t>VACCIN PNEUMOCOCCIQUE POLYOSIDIQUE AVENTIS PASTEUR MSD</t>
+  </si>
+  <si>
+    <t>VAL180</t>
+  </si>
+  <si>
+    <t>Valence covid 19, virus originel, ARNm codant la protéine de pointe du SARS-CoV-2, 100 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC1252</t>
+  </si>
+  <si>
+    <t>JE-CV</t>
+  </si>
+  <si>
+    <t>VAC0935</t>
+  </si>
+  <si>
+    <t>VACCIN RABIQUE INACTIVE MERIEUX</t>
+  </si>
+  <si>
+    <t>VAC1385</t>
+  </si>
+  <si>
+    <t>GC FLU QUADRIVALENT</t>
+  </si>
+  <si>
+    <t>VAC0802</t>
+  </si>
+  <si>
+    <t>Vaccin Poliomyélite monovalent oral - type non connu, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1034</t>
+  </si>
+  <si>
+    <t>HEBERBIOVAC B 10 µg</t>
+  </si>
+  <si>
+    <t>VAC1167</t>
+  </si>
+  <si>
+    <t>Vaccin Coqueluche acellulaire, dose standard, sans précision</t>
+  </si>
+  <si>
+    <t>VAL407</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2, 3 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC0140</t>
+  </si>
+  <si>
+    <t>INTANZA</t>
+  </si>
+  <si>
+    <t>VAC0273</t>
+  </si>
+  <si>
+    <t>KIKHOSTE-VAKSINE</t>
+  </si>
+  <si>
+    <t>VAC0188</t>
+  </si>
+  <si>
+    <t>QUIMI-HIB</t>
+  </si>
+  <si>
+    <t>VAL096</t>
+  </si>
+  <si>
+    <t>Valence BCG</t>
+  </si>
+  <si>
+    <t>VAL181</t>
+  </si>
+  <si>
+    <t>Valence covid 19, virus originel, ARNm codant la protéine de pointe du SARS-CoV-2, 25 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC0937</t>
+  </si>
+  <si>
+    <t>Vaccin Botulisme, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0804</t>
+  </si>
+  <si>
+    <t>Vaccin Charbon, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0719</t>
+  </si>
+  <si>
+    <t>NANOCOVAX</t>
+  </si>
+  <si>
+    <t>VAC1120</t>
+  </si>
+  <si>
+    <t>Vaccin Leptospirose, trivalent, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1253</t>
+  </si>
+  <si>
+    <t>CHIMERIVAX-JE</t>
+  </si>
+  <si>
+    <t>VAC0803</t>
+  </si>
+  <si>
+    <t>Polio Sabin One and Three GSK</t>
+  </si>
+  <si>
+    <t>VAC1168</t>
+  </si>
+  <si>
+    <t>Vaccin quadrivalent DTCeHib- Diphtérie-Tétanos-Coqueluche-Hib OC, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1386</t>
+  </si>
+  <si>
+    <t>GCFLU</t>
+  </si>
+  <si>
+    <t>VAC1035</t>
+  </si>
+  <si>
+    <t>HEBERBIOVAC HB 20 µg</t>
+  </si>
+  <si>
+    <t>VAL408</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2, 10 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC0491</t>
+  </si>
+  <si>
+    <t>TENIVAC</t>
+  </si>
+  <si>
+    <t>VAC0052</t>
+  </si>
+  <si>
+    <t>VACCIN MENINGOCOCCIQUE A+C</t>
+  </si>
+  <si>
+    <t>VAC0185</t>
+  </si>
+  <si>
+    <t>ALDITEANA</t>
+  </si>
+  <si>
+    <t>VAL093</t>
+  </si>
+  <si>
+    <t>Valence rougeole, inactivée, entière</t>
+  </si>
+  <si>
+    <t>VAC0849</t>
+  </si>
+  <si>
+    <t>Vaccin Tularémie, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0716</t>
+  </si>
+  <si>
+    <t>SARS-COV-2-RBD-FC FUSION PROTEIN</t>
+  </si>
+  <si>
+    <t>VAC0933</t>
+  </si>
+  <si>
+    <t>TICOVAC 2,7µg</t>
+  </si>
+  <si>
+    <t>VAC1383</t>
+  </si>
+  <si>
+    <t>CYVAC</t>
+  </si>
+  <si>
+    <t>VAC0800</t>
+  </si>
+  <si>
+    <t>Vaccin DTCoqHib - Diphtérie-Tétanos-Coqueluche-Hib, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0715</t>
+  </si>
+  <si>
+    <t>ERUCOV-VAC</t>
+  </si>
+  <si>
+    <t>VAC1032</t>
+  </si>
+  <si>
+    <t>SPIKEVAX BIVALENT ORIGINAL/OMICRON BA.1 (25 µg/25 µg) MODERNA</t>
+  </si>
+  <si>
+    <t>VAC1165</t>
+  </si>
+  <si>
+    <t>Anatoxine Diphtérie, dose standard, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1250</t>
+  </si>
+  <si>
+    <t>EUVICHOL-S</t>
+  </si>
+  <si>
+    <t>VAC1298</t>
+  </si>
+  <si>
+    <t>BETT</t>
+  </si>
+  <si>
+    <t>VAL405</t>
+  </si>
+  <si>
+    <t>Valence grippe pandémique H1N1 2009, vivante atténuée</t>
+  </si>
+  <si>
+    <t>VAC0270</t>
+  </si>
+  <si>
+    <t>Vaccin Poliomyélite inactivé, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0271</t>
+  </si>
+  <si>
+    <t>ISTIVAC</t>
+  </si>
+  <si>
+    <t>VAC0186</t>
+  </si>
+  <si>
+    <t>ALDITERPERA</t>
+  </si>
+  <si>
+    <t>VAC0053</t>
+  </si>
+  <si>
+    <t>PRIORIX</t>
+  </si>
+  <si>
+    <t>VAL094</t>
+  </si>
+  <si>
+    <t>Valence grippe, trivalente, inactivée, fractionnée ou sous-unité, voie intramusculaire ou sous-cutanée, sans adjuvant, haute dose</t>
+  </si>
+  <si>
+    <t>VAC0717</t>
+  </si>
+  <si>
+    <t>CIGB-669</t>
+  </si>
+  <si>
+    <t>VAC0801</t>
+  </si>
+  <si>
+    <t>Vaccin Hépatite B et Haemophilus influenzae b, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1033</t>
+  </si>
+  <si>
+    <t>COMIRNATY ORIGINAL/OMICRON BA.4-5 (5/5 µg) BIONTECH-PFIZER</t>
+  </si>
+  <si>
+    <t>VAC0934</t>
+  </si>
+  <si>
+    <t>VACCIN OREILLONS AVENTIS PASTEUR MSD</t>
+  </si>
+  <si>
+    <t>VAC1251</t>
+  </si>
+  <si>
+    <t>EUVICHOL-PLUS</t>
+  </si>
+  <si>
+    <t>VAC1384</t>
+  </si>
+  <si>
+    <t>BARYCELA</t>
+  </si>
+  <si>
+    <t>VAC1166</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, en cours d'essai clinique, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1299</t>
+  </si>
+  <si>
+    <t>BEVAC 10 µg</t>
+  </si>
+  <si>
+    <t>VAL406</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>VAC0361</t>
+  </si>
+  <si>
+    <t>RIT - LM-2</t>
+  </si>
+  <si>
+    <t>VAC0010</t>
+  </si>
+  <si>
+    <t>HBVAXPRO 40 µg</t>
+  </si>
+  <si>
+    <t>VAC0276</t>
+  </si>
+  <si>
+    <t>LIOVAX</t>
+  </si>
+  <si>
+    <t>VAC0143</t>
+  </si>
+  <si>
+    <t>Vaccin Haemophilus influenzae B, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0058</t>
+  </si>
+  <si>
+    <t>TWINRIX 10 µg</t>
+  </si>
+  <si>
+    <t>VAL184</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique conjugué, sans précision</t>
+  </si>
+  <si>
+    <t>VAL051</t>
+  </si>
+  <si>
+    <t>Valence grippe aviaire, A(H5N1)</t>
+  </si>
+  <si>
+    <t>VAC0807</t>
+  </si>
+  <si>
+    <t>Vaccin Choléra et Typhoïde inactivé, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1341</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, variant Omicron XBB.1.5, dose non précisée</t>
+  </si>
+  <si>
+    <t>VAC1256</t>
+  </si>
+  <si>
+    <t>Vaccin hexavalent DTCeHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib-Polio-Hépatite B 15µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAL099</t>
+  </si>
+  <si>
+    <t>Valence grippe pandémique H1N1 2009, inactivée</t>
+  </si>
+  <si>
+    <t>VAC1389</t>
+  </si>
+  <si>
+    <t>INLIVE</t>
+  </si>
+  <si>
+    <t>VAC1123</t>
+  </si>
+  <si>
+    <t>Vaccin Grippe trivalent, vivant atténué, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1038</t>
+  </si>
+  <si>
+    <t>Vaccin Encéphalite à tiques, souche Neudörfl, dose adulte, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0494</t>
+  </si>
+  <si>
+    <t>TRITANRIX HepB</t>
+  </si>
+  <si>
+    <t>VAC0362</t>
+  </si>
+  <si>
+    <t>RIT - LM-3</t>
+  </si>
+  <si>
+    <t>VAC0144</t>
+  </si>
+  <si>
+    <t>Vaccin Choléra, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0011</t>
+  </si>
+  <si>
+    <t>HBVAXPRO 5 µg</t>
+  </si>
+  <si>
+    <t>VAC0277</t>
+  </si>
+  <si>
+    <t>LIRUBEL</t>
+  </si>
+  <si>
+    <t>VAL185</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique non conjuguée, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0808</t>
+  </si>
+  <si>
+    <t>Vaccin Haemophilus influenzae b et Ménigocoque CY, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0059</t>
+  </si>
+  <si>
+    <t>TYPHERIX</t>
+  </si>
+  <si>
+    <t>VAL052</t>
+  </si>
+  <si>
+    <t>Valence papillomavirus, VLP, quadrivalente, types 6, 11, 16 et 18</t>
+  </si>
+  <si>
+    <t>VAL270</t>
+  </si>
+  <si>
+    <t>Valence méningocoque A, polyoside conjugué à l'anatoxine diphtérique</t>
+  </si>
+  <si>
+    <t>VAC1124</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à virus entier inactivé, en essai clinique, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1257</t>
+  </si>
+  <si>
+    <t>Vaccin Choléra, entier inactivé oral, bivalent contenant les bactéries V. cholerae O1 et O139 entières inactivées, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1342</t>
+  </si>
+  <si>
+    <t>IPVAX</t>
+  </si>
+  <si>
+    <t>VAC1039</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à ARNm, virus originel, 50 µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0495</t>
+  </si>
+  <si>
+    <t>BEXSERO</t>
+  </si>
+  <si>
+    <t>VAC0580</t>
+  </si>
+  <si>
+    <t>CLAIRYG</t>
+  </si>
+  <si>
+    <t>VAC0141</t>
+  </si>
+  <si>
+    <t>MENVEO</t>
+  </si>
+  <si>
+    <t>VAC0274</t>
+  </si>
+  <si>
+    <t>LANCY VAXINA</t>
+  </si>
+  <si>
+    <t>VAC0056</t>
+  </si>
+  <si>
+    <t>VACCIN TETANIQUE PASTEUR</t>
+  </si>
+  <si>
+    <t>VAC0189</t>
+  </si>
+  <si>
+    <t>ANADIFTERALL</t>
+  </si>
+  <si>
+    <t>VAL097</t>
+  </si>
+  <si>
+    <t>Valence diphtérique, anatoxine, dose standard</t>
+  </si>
+  <si>
+    <t>VAL182</t>
+  </si>
+  <si>
+    <t>Valence rougeole, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0805</t>
+  </si>
+  <si>
+    <t>Vaccin Choléra, entier inactivé, injectable, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0938</t>
+  </si>
+  <si>
+    <t>Vaccin Grippe quadrivalent, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1121</t>
+  </si>
+  <si>
+    <t>Vaccin hexavalent DTCaHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib-Polio-Hépatite B 10µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1387</t>
+  </si>
+  <si>
+    <t>SINSAVAC</t>
+  </si>
+  <si>
+    <t>VAC1036</t>
+  </si>
+  <si>
+    <t>SPIKEVAX BIVALENT ORIGINAL/OMICRON BA.4-5 25 µg/25 µg MODERNA</t>
+  </si>
+  <si>
+    <t>VAC1169</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 bivalent à ARNm contre le virus originel et le variant Omicron BA.4/5, 15 microgrammes, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1254</t>
+  </si>
+  <si>
+    <t>CAPVAXIVE</t>
+  </si>
+  <si>
+    <t>VAL409</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2, 30 microgrammes</t>
+  </si>
+  <si>
+    <t>VAC0492</t>
+  </si>
+  <si>
+    <t>AFLURIA</t>
+  </si>
+  <si>
+    <t>VAC0360</t>
+  </si>
+  <si>
+    <t>RIMPARIX</t>
+  </si>
+  <si>
+    <t>VAC0275</t>
+  </si>
+  <si>
+    <t>LAVANTUU TIROKOTE</t>
+  </si>
+  <si>
+    <t>VAC0057</t>
+  </si>
+  <si>
+    <t>TWINRIX 20 µg</t>
+  </si>
+  <si>
+    <t>VAL183</t>
+  </si>
+  <si>
+    <t>Valence oreillons, sans précision</t>
+  </si>
+  <si>
+    <t>VAL050</t>
+  </si>
+  <si>
+    <t>Valence covid 19, vecteur viral non réplicatif, adénovirus 5 codant la protéine de pointe du SARS-CoV-2, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0939</t>
+  </si>
+  <si>
+    <t>PREHEVBRIO</t>
+  </si>
+  <si>
+    <t>VAC0806</t>
+  </si>
+  <si>
+    <t>Vaccin Choléra, vivant atténué, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1340</t>
+  </si>
+  <si>
+    <t>SPIKEVAX BA.1 0,1 mg/mL dose 50 µg</t>
+  </si>
+  <si>
+    <t>VAC1037</t>
+  </si>
+  <si>
+    <t>Vaccin Encéphalite à tiques, souche Neudörfl, dose pédiatrique, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1122</t>
+  </si>
+  <si>
+    <t>Vaccin Variole vivant de 1ère génération, sans précision</t>
+  </si>
+  <si>
+    <t>VAL098</t>
+  </si>
+  <si>
+    <t>Valence méningocoque B, 4 composants</t>
+  </si>
+  <si>
+    <t>VAC1255</t>
+  </si>
+  <si>
+    <t>HEXASIIL</t>
+  </si>
+  <si>
+    <t>VAC1388</t>
+  </si>
+  <si>
+    <t>BIVAC POLIO</t>
+  </si>
+  <si>
+    <t>VAL273</t>
+  </si>
+  <si>
+    <t>Valence méningocoque W, polyoside conjugué à l'anatoxine diphtérique</t>
+  </si>
+  <si>
+    <t>VAL140</t>
+  </si>
+  <si>
+    <t>Valence grippe, vivant atténué, sans précision</t>
+  </si>
+  <si>
+    <t>DIS066</t>
+  </si>
+  <si>
+    <t>Hantavirus</t>
+  </si>
+  <si>
+    <t>VAC1050</t>
+  </si>
+  <si>
+    <t>BEYFORTUS 100 mg (nirsevimab)</t>
+  </si>
+  <si>
+    <t>VAC1183</t>
+  </si>
+  <si>
+    <t>Vaccin Ebola à vecteur viral non réplicatif, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0648</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0999</t>
+  </si>
+  <si>
+    <t>WETVAX APSV</t>
+  </si>
+  <si>
+    <t>VAC0866</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque A conjugué, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1098</t>
+  </si>
+  <si>
+    <t>XANAFLU</t>
+  </si>
+  <si>
+    <t>VAC0515</t>
+  </si>
+  <si>
+    <t>INFANRIX-POLIO</t>
+  </si>
+  <si>
+    <t>DIS065</t>
+  </si>
+  <si>
+    <t>Fièvre Q</t>
+  </si>
+  <si>
+    <t>VAC0951</t>
+  </si>
+  <si>
+    <t>IMOVAX POLIO ORALE</t>
+  </si>
+  <si>
+    <t>VAC0600</t>
+  </si>
+  <si>
+    <t>Vaccin Poliomyélite bivalent OPV 1-3, sans précision</t>
+  </si>
+  <si>
+    <t>VAL188</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 4</t>
+  </si>
+  <si>
+    <t>VAC0733</t>
+  </si>
+  <si>
+    <t>HEPLISAV-B</t>
+  </si>
+  <si>
+    <t>VAL055</t>
+  </si>
+  <si>
+    <t>Valence rougeole, immunoglobuline</t>
+  </si>
+  <si>
+    <t>VAC0070</t>
+  </si>
+  <si>
+    <t>DT BIS</t>
+  </si>
+  <si>
+    <t>VAL141</t>
+  </si>
+  <si>
+    <t>Valence rotavirus, vivant atténué, monovalent RIX4414</t>
+  </si>
+  <si>
+    <t>VAC1051</t>
+  </si>
+  <si>
+    <t>PFIZER COMIRNATY-30 XBB.1.5</t>
+  </si>
+  <si>
+    <t>VAC0867</t>
+  </si>
+  <si>
+    <t>Antitoxine Diphtérie, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1099</t>
+  </si>
+  <si>
+    <t>BABYBIG</t>
+  </si>
+  <si>
+    <t>VAC0649</t>
+  </si>
+  <si>
+    <t>EFLUELDA QIV-HD</t>
+  </si>
+  <si>
+    <t>VAC0516</t>
+  </si>
+  <si>
+    <t>ABHAYRAB</t>
+  </si>
+  <si>
+    <t>VAC0734</t>
+  </si>
+  <si>
+    <t>POLIO BOOSTRIX</t>
+  </si>
+  <si>
+    <t>DIS064</t>
+  </si>
+  <si>
+    <t>Encéphalite équine vénézuélienne</t>
+  </si>
+  <si>
+    <t>VAC1184</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque C polyosidique conjugué à l'anatoxine tétanique, sans précision</t>
+  </si>
+  <si>
+    <t>VAL189</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 5</t>
+  </si>
+  <si>
+    <t>VAL056</t>
+  </si>
+  <si>
+    <t>Valence poliomyélite, trivalente, inactivée, entière, injectable</t>
+  </si>
+  <si>
+    <t>VAC0601</t>
+  </si>
+  <si>
+    <t>Vaccin DTC - Diphtérie-Tétanos-Coqueluche, sans précision</t>
+  </si>
+  <si>
+    <t>VAL274</t>
+  </si>
+  <si>
+    <t>Valence méningocoque W, polyoside conjugué à la protéine CRM197</t>
+  </si>
+  <si>
+    <t>VAC0952</t>
+  </si>
+  <si>
+    <t>IMOVAX COLERA</t>
+  </si>
+  <si>
+    <t>VAC0071</t>
+  </si>
+  <si>
+    <t>D.T. BIS - RUDIVAX</t>
+  </si>
+  <si>
+    <t>VAC1409</t>
+  </si>
+  <si>
+    <t>Vaccin à ARNm contre la covid 19 , subvariant Omicron JN.1, 50 microgrammes par dose, flacon multidose</t>
+  </si>
+  <si>
+    <t>VAL053</t>
+  </si>
+  <si>
+    <t>Valence covid 19, sous-unité protéique, sans précision</t>
+  </si>
+  <si>
+    <t>VAL271</t>
+  </si>
+  <si>
+    <t>Valence méningocoque A, polyoside conjugué à l'anatoxine tétanique</t>
+  </si>
+  <si>
+    <t>VAC1181</t>
+  </si>
+  <si>
+    <t>Vaccin pentavalent DTCeHibHepB - Diphtérie-Tétanos-Coqueluche-Hib PRP-HépatiteB 10µg, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0428</t>
+  </si>
+  <si>
+    <t>VA-MENGOC-BC</t>
+  </si>
+  <si>
+    <t>DIS063</t>
+  </si>
+  <si>
+    <t>Adénovirus</t>
+  </si>
+  <si>
+    <t>VAC0646</t>
+  </si>
+  <si>
+    <t>CECOLIN</t>
+  </si>
+  <si>
+    <t>VAC0779</t>
+  </si>
+  <si>
+    <t>BATREVAC</t>
+  </si>
+  <si>
+    <t>VAC1096</t>
+  </si>
+  <si>
+    <t>MORCVAX</t>
+  </si>
+  <si>
+    <t>VAC0513</t>
+  </si>
+  <si>
+    <t>HEPATYRIX</t>
+  </si>
+  <si>
+    <t>VAC0997</t>
+  </si>
+  <si>
+    <t>Vaccin Pneumocoque conjugué 13-valent, sans précision</t>
+  </si>
+  <si>
+    <t>VAL186</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 1</t>
+  </si>
+  <si>
+    <t>VAC0864</t>
+  </si>
+  <si>
+    <t>Immunoglobuline Varicelle, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0731</t>
+  </si>
+  <si>
+    <t>DITANRIX</t>
+  </si>
+  <si>
+    <t>VAC1408</t>
+  </si>
+  <si>
+    <t>ENIVACHB</t>
+  </si>
+  <si>
+    <t>VAL272</t>
+  </si>
+  <si>
+    <t>Valence méningocoque W, polyoside conjugué à l'anatoxine tétanique</t>
+  </si>
+  <si>
+    <t>VAC1182</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque ACWY polyosidique conjugué à l'anatoxine tétanique, sans précision</t>
+  </si>
+  <si>
+    <t>VAC0429</t>
+  </si>
+  <si>
+    <t>VACCIN COMBINAT DIFTERO-TETANIC</t>
+  </si>
+  <si>
+    <t>DIS062</t>
+  </si>
+  <si>
+    <t>Fièvre hémorragique d'Argentine</t>
+  </si>
+  <si>
+    <t>VAC0998</t>
+  </si>
+  <si>
+    <t>LC16</t>
+  </si>
+  <si>
+    <t>VAC1097</t>
+  </si>
+  <si>
+    <t>CYTOGAM</t>
+  </si>
+  <si>
+    <t>VAC0647</t>
+  </si>
+  <si>
+    <t>ROTASIIL</t>
+  </si>
+  <si>
+    <t>VAC0514</t>
+  </si>
+  <si>
+    <t>ROTARIX</t>
+  </si>
+  <si>
+    <t>VAC0732</t>
+  </si>
+  <si>
+    <t>COVAC-1 - COVAC-2</t>
+  </si>
+  <si>
+    <t>VAC0950</t>
+  </si>
+  <si>
+    <t>IMOVAX DTP</t>
+  </si>
+  <si>
+    <t>VAL187</t>
+  </si>
+  <si>
+    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 3</t>
+  </si>
+  <si>
+    <t>VAC0865</t>
+  </si>
+  <si>
+    <t>Vaccin Méningocoque A non conjugué, sans précision</t>
+  </si>
+  <si>
+    <t>VAL054</t>
+  </si>
+  <si>
+    <t>Valence covid 19, vecteur non réplicatif, vaccine Ankara modifiée codant la protéine de pointe du SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>VAC0074</t>
+  </si>
+  <si>
+    <t>D.T. COQ MERIEUX</t>
+  </si>
+  <si>
+    <t>VAC0955</t>
+  </si>
+  <si>
+    <t>PULMOVAX</t>
+  </si>
+  <si>
+    <t>VAC0737</t>
+  </si>
+  <si>
+    <t>GBP510</t>
+  </si>
+  <si>
+    <t>VAC0822</t>
+  </si>
+  <si>
+    <t>Vaccin Grippe vivant atténué, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1054</t>
+  </si>
+  <si>
+    <t>COMIRNATY ORIGINAL/OMICRON BA.4-5 (1,5/1,5 µg)</t>
+  </si>
+  <si>
+    <t>VAC1187</t>
+  </si>
+  <si>
+    <t>Vaccin Covid 19 à vecteur viral réplicatif, virus de la rougeole codant la protéine de pointe du SARS-CoV-2, sans précision</t>
+  </si>
+  <si>
+    <t>VAL059</t>
+  </si>
+  <si>
+    <t>Valence grippe, quadrivalente, vivante atténuée, dose normale</t>
+  </si>
+  <si>
+    <t>VAC1272</t>
+  </si>
+  <si>
+    <t>PSEUDOVAC</t>
+  </si>
+  <si>
+    <t>VAL277</t>
+  </si>
+  <si>
+    <t>Valence méningocoque Y, polyoside conjugué à l'anatoxine diphtérique</t>
+  </si>
+  <si>
+    <t>VAL144</t>
+  </si>
+  <si>
+    <t>Valence hépatite A, inactivée, entière, monovalente, dose adulte</t>
+  </si>
+  <si>
+    <t>VAL011</t>
+  </si>
+  <si>
+    <t>Valence covid 19, sous-unité protéique, protéine de pointe recombinante (domaine RBD)</t>
+  </si>
+  <si>
+    <t>VAL362</t>
+  </si>
+  <si>
+    <t>Valence grippe, virosomal, sans précision</t>
+  </si>
+  <si>
+    <t>DIS061</t>
+  </si>
+  <si>
+    <t>Tularémie</t>
+  </si>
+  <si>
+    <t>VAC0292</t>
+  </si>
+  <si>
+    <t>MEASLES VACCINE DK3</t>
+  </si>
+  <si>
+    <t>VAC0293</t>
+  </si>
+  <si>
+    <t>MENAFRIVAC</t>
+  </si>
+  <si>
+    <t>VAC0739</t>
+  </si>
+  <si>
+    <t>RAZI COV PARS</t>
+  </si>
+  <si>
+    <t>VAC0823</t>
+  </si>
+  <si>
+    <t>Vaccin Grippe VLP, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1055</t>
+  </si>
+  <si>
+    <t>NUVAXOVID XBB.1.5</t>
+  </si>
+  <si>
+    <t>VAL278</t>
+  </si>
+  <si>
+    <t>Valence Adénovirus, vivant atténué, voie orale, sans précision</t>
+  </si>
+  <si>
+    <t>VAC1140</t>
+  </si>
+  <si>
     <t>Vaccin Covid 19 bivalent à ARNm contre le virus originel et le variant Omicron BA.4/5, 25 microgrammes, sans précision</t>
   </si>
   <si>
-    <t>VAC0498</t>
-  </si>
-  <si>
-    <t>IMOGAM RAGE</t>
-  </si>
-  <si>
-    <t>VAC1127</t>
-  </si>
-  <si>
-    <t>Immunoglobuline Hépatite A, Rougeole, Varicelle et Rubéole, sans précision</t>
-  </si>
-  <si>
-    <t>VAL229</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 33F</t>
-  </si>
-  <si>
-    <t>VAC0450</t>
-  </si>
-  <si>
-    <t>VIROVAC MASSLING, PEROTID, RUBELLA</t>
-  </si>
-  <si>
-    <t>VAC0233</t>
-  </si>
-  <si>
-    <t>FLUMIST</t>
-  </si>
-  <si>
-    <t>VAC0366</t>
-  </si>
-  <si>
-    <t>RUBELLA-KOVAX</t>
-  </si>
-  <si>
-    <t>VAC0148</t>
-  </si>
-  <si>
-    <t>Vaccin Leptospirose, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0015</t>
-  </si>
-  <si>
-    <t>INFANRIXQUINTA</t>
-  </si>
-  <si>
-    <t>VAL400</t>
-  </si>
-  <si>
-    <t>Valence typhoïde, antigène Vi conjugué à la protéine CRM197</t>
-  </si>
-  <si>
-    <t>VAC1431</t>
-  </si>
-  <si>
-    <t>Vaccin VRS, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1213</t>
-  </si>
-  <si>
-    <t>Vaccin Choléra contenant la sous-unité B recombinante de la toxine cholérique et des bactéries V. cholerae O1 entières inactivées, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0499</t>
-  </si>
-  <si>
-    <t>BENIRAB (immunoglobuline)</t>
-  </si>
-  <si>
-    <t>VAC1128</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à ADN plasmidique, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1346</t>
-  </si>
-  <si>
-    <t>FLU QUADRIVALENT MCV</t>
-  </si>
-  <si>
-    <t>VAC0451</t>
-  </si>
-  <si>
-    <t>VIVOTIF</t>
-  </si>
-  <si>
-    <t>VAL315</t>
-  </si>
-  <si>
-    <t>Valence encéphalite à tiques, entière inactivée, souche Neudörfl, dose pédiatrique</t>
-  </si>
-  <si>
-    <t>VAC0230</t>
-  </si>
-  <si>
-    <t>FLUAD</t>
-  </si>
-  <si>
-    <t>VAC0012</t>
-  </si>
-  <si>
-    <t>IMMUGRIP</t>
-  </si>
-  <si>
-    <t>VAC0363</t>
-  </si>
-  <si>
-    <t>ROTASHIELD</t>
-  </si>
-  <si>
-    <t>VAC0145</t>
-  </si>
-  <si>
-    <t>Vaccin Encéphalite à tiques, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0278</t>
-  </si>
-  <si>
-    <t>LIRUGEN</t>
-  </si>
-  <si>
-    <t>VAC0809</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque polyosidique monovalent, sans précision</t>
-  </si>
-  <si>
-    <t>VAL312</t>
-  </si>
-  <si>
-    <t>Valence encéphalite à tiques, inactivée, entière, souche K23</t>
-  </si>
-  <si>
-    <t>VAC1125</t>
-  </si>
-  <si>
-    <t>Vaccin Hépatite B, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1210</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, virus original, 100 microgrammes, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1343</t>
-  </si>
-  <si>
-    <t>BORYUNG CELL CULTURE-DERIVED JAPANESE ENCEPHALITIS VACCINE</t>
-  </si>
-  <si>
-    <t>VAC0496</t>
-  </si>
-  <si>
-    <t>GAMMATETANOS (immunoglobuline)</t>
-  </si>
-  <si>
-    <t>VAC1258</t>
-  </si>
-  <si>
-    <t>COMIRNATY JN.1 30 µg</t>
-  </si>
-  <si>
-    <t>VAL009</t>
-  </si>
-  <si>
-    <t>Valence paludisme, protéine de surface du sporozoïte</t>
-  </si>
-  <si>
-    <t>VAL227</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 22F</t>
-  </si>
-  <si>
-    <t>VAC0231</t>
-  </si>
-  <si>
-    <t>FLUKOVAX</t>
-  </si>
-  <si>
-    <t>VAC0364</t>
-  </si>
-  <si>
-    <t>RUBEATEN BERNA PRODUCTS</t>
-  </si>
-  <si>
-    <t>VAC0146</t>
-  </si>
-  <si>
-    <t>Vaccin Encéphalite Japonaise vivant atténué 14-14-2, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0013</t>
-  </si>
-  <si>
-    <t>IMOVAX POLIO</t>
-  </si>
-  <si>
-    <t>VAL313</t>
-  </si>
-  <si>
-    <t>Valence encéphalite à tiques, inactivée, entière, souche Neudörfl, dose non précisée</t>
-  </si>
-  <si>
-    <t>VAC1344</t>
-  </si>
-  <si>
-    <t>BORYUNG JAPANESE ENCEPHALITIS VACCINE</t>
-  </si>
-  <si>
-    <t>VAC1211</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque C polyosidique conjugué à la protéine CRM197, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0497</t>
-  </si>
-  <si>
-    <t>Immunoglobuline Tétanos, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1126</t>
-  </si>
-  <si>
-    <t>Vaccin pentavalent DTCeHibP - Diphtérie-Tétanos-Coqueluche-Hib PRP-Polio, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1259</t>
-  </si>
-  <si>
-    <t>COMIRNATY JN.1 10 µg</t>
-  </si>
-  <si>
-    <t>VAC0582</t>
-  </si>
-  <si>
-    <t>TRUMENBA</t>
-  </si>
-  <si>
-    <t>VAL228</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 23F</t>
-  </si>
-  <si>
-    <t>VAC0321</t>
-  </si>
-  <si>
-    <t>ORIMUNE</t>
-  </si>
-  <si>
-    <t>VAC0103</t>
-  </si>
-  <si>
-    <t>MENACTRA</t>
-  </si>
-  <si>
-    <t>VAC0236</t>
-  </si>
-  <si>
-    <t>FLUZONE HIGH-DOSE</t>
-  </si>
-  <si>
-    <t>VAC0018</t>
-  </si>
-  <si>
-    <t>MENCEVAX ACWY</t>
-  </si>
-  <si>
-    <t>VAC0369</t>
-  </si>
-  <si>
-    <t>RUBEOVAX</t>
-  </si>
-  <si>
-    <t>DIS018</t>
-  </si>
-  <si>
-    <t>Typhoïde</t>
-  </si>
-  <si>
-    <t>VAL091</t>
-  </si>
-  <si>
-    <t>Valence typhoïde, vivante atténuée, souche Ty21a, orale</t>
-  </si>
-  <si>
-    <t>VAC1301</t>
-  </si>
-  <si>
-    <t>BE Td</t>
-  </si>
-  <si>
-    <t>VAC0454</t>
-  </si>
-  <si>
-    <t>VVR CANTACUZINO</t>
-  </si>
-  <si>
-    <t>VAC1216</t>
-  </si>
-  <si>
-    <t>Vaccin quadrivalent DTCaHepB - Diphtérie-Tétanos-Coqueluche-Hépatite B 10µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1349</t>
-  </si>
-  <si>
-    <t>TY BIOMED</t>
-  </si>
-  <si>
-    <t>VAC1434</t>
-  </si>
-  <si>
-    <t>Vaccin méningocoque A, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0672</t>
-  </si>
-  <si>
-    <t>VAXINE-SPIKE-COVID</t>
-  </si>
-  <si>
-    <t>VAL318</t>
-  </si>
-  <si>
-    <t>Valence VRS, vaccin, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0890</t>
-  </si>
-  <si>
-    <t>NEOTYF</t>
-  </si>
-  <si>
-    <t>VAL403</t>
-  </si>
-  <si>
-    <t>Valence méningocoque X, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0322</t>
-  </si>
-  <si>
-    <t>PARIORIX</t>
-  </si>
-  <si>
-    <t>VAC0104</t>
-  </si>
-  <si>
-    <t>HUMENZA</t>
-  </si>
-  <si>
-    <t>DIS017</t>
-  </si>
-  <si>
-    <t>Fièvre jaune</t>
-  </si>
-  <si>
-    <t>VAC0019</t>
-  </si>
-  <si>
-    <t>MENINGITEC</t>
-  </si>
-  <si>
-    <t>VAL092</t>
-  </si>
-  <si>
-    <t>Valence fièvre jaune</t>
-  </si>
-  <si>
-    <t>VAC0673</t>
-  </si>
-  <si>
-    <t>QUEENSLAND-SPIKE-MF59-COVID</t>
-  </si>
-  <si>
-    <t>VAC1435</t>
-  </si>
-  <si>
-    <t>Vaccin rage, inactivé, entier, préparé sur culture cellulaire, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0891</t>
-  </si>
-  <si>
-    <t>PNEUMOPUR</t>
-  </si>
-  <si>
-    <t>VAC1217</t>
-  </si>
-  <si>
-    <t>Vaccin Hépatite B et Haemophilus influenzae type b, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0540</t>
-  </si>
-  <si>
-    <t>IPAD T</t>
-  </si>
-  <si>
-    <t>VAL319</t>
-  </si>
-  <si>
-    <t>Valence covid 19, vecteur viral non réplicatif, adénovirus codant la protéine de pointe du SARS-CoV-2, par inhalation</t>
-  </si>
-  <si>
-    <t>VAC1302</t>
-  </si>
-  <si>
-    <t>COMBE FIVE</t>
-  </si>
-  <si>
-    <t>VAL404</t>
-  </si>
-  <si>
-    <t>Valence méningocoque X, polyoside conjugué</t>
-  </si>
-  <si>
-    <t>VAC0234</t>
-  </si>
-  <si>
-    <t>FLUOGEN</t>
-  </si>
-  <si>
-    <t>VAC0101</t>
-  </si>
-  <si>
-    <t>Vaccin Hépatite B, recombinant, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0367</t>
-  </si>
-  <si>
-    <t>RUBELLOVAC</t>
-  </si>
-  <si>
-    <t>VAC0016</t>
-  </si>
-  <si>
-    <t>INFLUVAC</t>
-  </si>
-  <si>
-    <t>DIS016</t>
-  </si>
-  <si>
-    <t>Hépatite A</t>
-  </si>
-  <si>
-    <t>VAC0149</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque B:14:P1.7,16, sans précision</t>
-  </si>
-  <si>
-    <t>VAL401</t>
-  </si>
-  <si>
-    <t>Valence encéphalite japonaise, inactivée, dérivée de cellules Vero, 3 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC1432</t>
-  </si>
-  <si>
-    <t>Vaccin Fièvre hémorragique d'Argentine, virus Junin, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0585</t>
-  </si>
-  <si>
-    <t>Vaccin dTcaP - Diphtérie-Tétanos-Coqueluche-Polio, dose réduite, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1129</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à sous-unité protéique, protéine de pointe recombinante dans des nanoparticules, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0452</t>
-  </si>
-  <si>
-    <t>VT (VACINA TRIPLICE)</t>
-  </si>
-  <si>
-    <t>VAC1214</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, contre le variant Omicron XBB.1.5, 10µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1347</t>
-  </si>
-  <si>
-    <t>EFLUELDA TIV-HD</t>
-  </si>
-  <si>
-    <t>VAC0670</t>
-  </si>
-  <si>
-    <t>SPOUTNIK V</t>
-  </si>
-  <si>
-    <t>VAL316</t>
-  </si>
-  <si>
-    <t>Valence VRS, recombinante, antigène RSVPreF3 dérivé de la protéine F</t>
-  </si>
-  <si>
-    <t>VAC0320</t>
-  </si>
-  <si>
-    <t>Vaccin Poliomyélite oral trivalent, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0102</t>
-  </si>
-  <si>
-    <t>Vaccin Hépatite A inactivé, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0235</t>
-  </si>
-  <si>
-    <t>FLUVIRIN</t>
-  </si>
-  <si>
-    <t>DIS015</t>
-  </si>
-  <si>
-    <t>Grippe saisonnière</t>
-  </si>
-  <si>
-    <t>VAC0368</t>
-  </si>
-  <si>
-    <t>RUBELOGEN</t>
-  </si>
-  <si>
-    <t>VAC0017</t>
-  </si>
-  <si>
-    <t>M-M-RVAXPRO</t>
-  </si>
-  <si>
-    <t>VAL090</t>
-  </si>
-  <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), sans précision</t>
-  </si>
-  <si>
-    <t>VAL402</t>
-  </si>
-  <si>
-    <t>Valence encéphalite japonaise, inactivée, dérivée de cellules Vero, 6 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC1300</t>
-  </si>
-  <si>
-    <t>BEVAC 20 µg</t>
-  </si>
-  <si>
-    <t>VAC1433</t>
-  </si>
-  <si>
-    <t>Vaccin peste, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0586</t>
-  </si>
-  <si>
-    <t>ERVEBO</t>
-  </si>
-  <si>
-    <t>VAC1348</t>
-  </si>
-  <si>
-    <t>TETANA</t>
-  </si>
-  <si>
-    <t>VAC0453</t>
-  </si>
-  <si>
-    <t>VTV (VACINA TRIPLICE VIRAL)</t>
-  </si>
-  <si>
-    <t>VAC0671</t>
-  </si>
-  <si>
-    <t>CLOVER-SPIKE-SCB-2019-COVID</t>
-  </si>
-  <si>
-    <t>VAC1215</t>
-  </si>
-  <si>
-    <t>Vaccin hexavalent DTCaHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib OMP-Polio-Hépatite B 10µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAL317</t>
-  </si>
-  <si>
-    <t>Valence VRS, anticorps, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0490</t>
-  </si>
-  <si>
-    <t>KINRIX</t>
-  </si>
-  <si>
-    <t>VAC0272</t>
-  </si>
-  <si>
-    <t>KAKSOISROKOTE DUBBELVACCIN</t>
-  </si>
-  <si>
-    <t>VAC0054</t>
-  </si>
-  <si>
-    <t>VACCIN RABIQUE PASTEUR</t>
-  </si>
-  <si>
-    <t>VAC0187</t>
-  </si>
-  <si>
-    <t>AMARIL</t>
-  </si>
-  <si>
-    <t>VAL095</t>
-  </si>
-  <si>
-    <t>Valence covid 19, vecteur viral réplicatif, virus de la maladie de Newcastle codant la protéine de pointe du SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>VAC0718</t>
-  </si>
-  <si>
-    <t>CIGB-66</t>
-  </si>
-  <si>
-    <t>VAC0936</t>
-  </si>
-  <si>
-    <t>VACCIN PNEUMOCOCCIQUE POLYOSIDIQUE AVENTIS PASTEUR MSD</t>
-  </si>
-  <si>
-    <t>VAL180</t>
-  </si>
-  <si>
-    <t>Valence covid 19, virus originel, ARNm codant la protéine de pointe du SARS-CoV-2, 100 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC1252</t>
-  </si>
-  <si>
-    <t>JE-CV</t>
-  </si>
-  <si>
-    <t>VAC0935</t>
-  </si>
-  <si>
-    <t>VACCIN RABIQUE INACTIVE MERIEUX</t>
-  </si>
-  <si>
-    <t>VAC1385</t>
-  </si>
-  <si>
-    <t>GC FLU QUADRIVALENT</t>
-  </si>
-  <si>
-    <t>VAC0802</t>
-  </si>
-  <si>
-    <t>Vaccin Poliomyélite monovalent oral - type non connu, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1034</t>
-  </si>
-  <si>
-    <t>HEBERBIOVAC B 10 µg</t>
-  </si>
-  <si>
-    <t>VAC1167</t>
-  </si>
-  <si>
-    <t>Vaccin Coqueluche acellulaire, dose standard, sans précision</t>
-  </si>
-  <si>
-    <t>VAL407</t>
-  </si>
-  <si>
-    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2, 3 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC0140</t>
-  </si>
-  <si>
-    <t>INTANZA</t>
-  </si>
-  <si>
-    <t>VAC0273</t>
-  </si>
-  <si>
-    <t>KIKHOSTE-VAKSINE</t>
-  </si>
-  <si>
-    <t>VAC0188</t>
-  </si>
-  <si>
-    <t>QUIMI-HIB</t>
-  </si>
-  <si>
-    <t>VAL096</t>
-  </si>
-  <si>
-    <t>Valence BCG</t>
-  </si>
-  <si>
-    <t>VAL181</t>
-  </si>
-  <si>
-    <t>Valence covid 19, virus originel, ARNm codant la protéine de pointe du SARS-CoV-2, 25 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC0937</t>
-  </si>
-  <si>
-    <t>Vaccin Botulisme, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0804</t>
-  </si>
-  <si>
-    <t>Vaccin Charbon, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0719</t>
-  </si>
-  <si>
-    <t>NANOCOVAX</t>
-  </si>
-  <si>
-    <t>VAC1120</t>
-  </si>
-  <si>
-    <t>Vaccin Leptospirose, trivalent, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1253</t>
-  </si>
-  <si>
-    <t>CHIMERIVAX-JE</t>
-  </si>
-  <si>
-    <t>VAC0803</t>
-  </si>
-  <si>
-    <t>Polio Sabin One and Three GSK</t>
-  </si>
-  <si>
-    <t>VAC1168</t>
-  </si>
-  <si>
-    <t>Vaccin quadrivalent DTCeHib- Diphtérie-Tétanos-Coqueluche-Hib OC, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1386</t>
-  </si>
-  <si>
-    <t>GCFLU</t>
-  </si>
-  <si>
-    <t>VAC1035</t>
-  </si>
-  <si>
-    <t>HEBERBIOVAC HB 20 µg</t>
-  </si>
-  <si>
-    <t>VAL408</t>
-  </si>
-  <si>
-    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2, 10 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC0491</t>
-  </si>
-  <si>
-    <t>TENIVAC</t>
-  </si>
-  <si>
-    <t>VAC0052</t>
-  </si>
-  <si>
-    <t>VACCIN MENINGOCOCCIQUE A+C</t>
-  </si>
-  <si>
-    <t>VAC0185</t>
-  </si>
-  <si>
-    <t>ALDITEANA</t>
-  </si>
-  <si>
-    <t>VAL093</t>
-  </si>
-  <si>
-    <t>Valence rougeole, inactivée, entière</t>
-  </si>
-  <si>
-    <t>VAC0849</t>
-  </si>
-  <si>
-    <t>Vaccin Tularémie, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0716</t>
-  </si>
-  <si>
-    <t>SARS-COV-2-RBD-FC FUSION PROTEIN</t>
-  </si>
-  <si>
-    <t>VAC0933</t>
-  </si>
-  <si>
-    <t>TICOVAC 2,7µg</t>
-  </si>
-  <si>
-    <t>VAC1383</t>
-  </si>
-  <si>
-    <t>CYVAC</t>
-  </si>
-  <si>
-    <t>VAC0800</t>
-  </si>
-  <si>
-    <t>Vaccin DTCoqHib - Diphtérie-Tétanos-Coqueluche-Hib, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0715</t>
-  </si>
-  <si>
-    <t>ERUCOV-VAC</t>
-  </si>
-  <si>
-    <t>VAC1032</t>
-  </si>
-  <si>
-    <t>SPIKEVAX BIVALENT ORIGINAL/OMICRON BA.1 (25 µg/25 µg) MODERNA</t>
-  </si>
-  <si>
-    <t>VAC1165</t>
-  </si>
-  <si>
-    <t>Anatoxine Diphtérie, dose standard, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1250</t>
-  </si>
-  <si>
-    <t>EUVICHOL-S</t>
-  </si>
-  <si>
-    <t>VAC1298</t>
-  </si>
-  <si>
-    <t>BETT</t>
-  </si>
-  <si>
-    <t>VAL405</t>
-  </si>
-  <si>
-    <t>Valence grippe pandémique H1N1 2009, vivante atténuée</t>
-  </si>
-  <si>
-    <t>VAC0270</t>
-  </si>
-  <si>
-    <t>Vaccin Poliomyélite inactivé, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0271</t>
-  </si>
-  <si>
-    <t>ISTIVAC</t>
-  </si>
-  <si>
-    <t>VAC0186</t>
-  </si>
-  <si>
-    <t>ALDITERPERA</t>
-  </si>
-  <si>
-    <t>VAC0053</t>
-  </si>
-  <si>
-    <t>PRIORIX</t>
-  </si>
-  <si>
-    <t>VAL094</t>
-  </si>
-  <si>
-    <t>Valence grippe, trivalente, inactivée, fractionnée ou sous-unité, voie intramusculaire ou sous-cutanée, sans adjuvant, haute dose</t>
-  </si>
-  <si>
-    <t>VAC0717</t>
-  </si>
-  <si>
-    <t>CIGB-669</t>
-  </si>
-  <si>
-    <t>VAC0801</t>
-  </si>
-  <si>
-    <t>Vaccin Hépatite B et Haemophilus influenzae b, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1033</t>
-  </si>
-  <si>
-    <t>COMIRNATY ORIGINAL/OMICRON BA.4-5 (5/5 µg) BIONTECH-PFIZER</t>
-  </si>
-  <si>
-    <t>VAC0934</t>
-  </si>
-  <si>
-    <t>VACCIN OREILLONS AVENTIS PASTEUR MSD</t>
-  </si>
-  <si>
-    <t>VAC1251</t>
-  </si>
-  <si>
-    <t>EUVICHOL-PLUS</t>
-  </si>
-  <si>
-    <t>VAC1384</t>
-  </si>
-  <si>
-    <t>BARYCELA</t>
-  </si>
-  <si>
-    <t>VAC1166</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, en cours d'essai clinique, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1299</t>
-  </si>
-  <si>
-    <t>BEVAC 10 µg</t>
-  </si>
-  <si>
-    <t>VAL406</t>
-  </si>
-  <si>
-    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>VAC0361</t>
-  </si>
-  <si>
-    <t>RIT - LM-2</t>
-  </si>
-  <si>
-    <t>VAC0010</t>
-  </si>
-  <si>
-    <t>HBVAXPRO 40 µg</t>
-  </si>
-  <si>
-    <t>VAC0276</t>
-  </si>
-  <si>
-    <t>LIOVAX</t>
-  </si>
-  <si>
-    <t>VAC0143</t>
-  </si>
-  <si>
-    <t>Vaccin Haemophilus influenzae B, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0058</t>
-  </si>
-  <si>
-    <t>TWINRIX 10 µg</t>
-  </si>
-  <si>
-    <t>VAL184</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique conjugué, sans précision</t>
-  </si>
-  <si>
-    <t>VAL051</t>
-  </si>
-  <si>
-    <t>Valence grippe aviaire, A(H5N1)</t>
-  </si>
-  <si>
-    <t>VAC0807</t>
-  </si>
-  <si>
-    <t>Vaccin Choléra et Typhoïde inactivé, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1341</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à ARNm codant la protéine de pointe du SARS-CoV-2, variant Omicron XBB.1.5, dose non précisée</t>
-  </si>
-  <si>
-    <t>VAC1256</t>
-  </si>
-  <si>
-    <t>Vaccin hexavalent DTCeHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib-Polio-Hépatite B 15µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAL099</t>
-  </si>
-  <si>
-    <t>Valence grippe pandémique H1N1 2009, inactivée</t>
-  </si>
-  <si>
-    <t>VAC1389</t>
-  </si>
-  <si>
-    <t>INLIVE</t>
-  </si>
-  <si>
-    <t>VAC1123</t>
-  </si>
-  <si>
-    <t>Vaccin Grippe trivalent, vivant atténué, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1038</t>
-  </si>
-  <si>
-    <t>Vaccin Encéphalite à tiques, souche Neudörfl, dose adulte, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0494</t>
-  </si>
-  <si>
-    <t>TRITANRIX HepB</t>
-  </si>
-  <si>
-    <t>VAC0362</t>
-  </si>
-  <si>
-    <t>RIT - LM-3</t>
-  </si>
-  <si>
-    <t>VAC0144</t>
-  </si>
-  <si>
-    <t>Vaccin Choléra, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0011</t>
-  </si>
-  <si>
-    <t>HBVAXPRO 5 µg</t>
-  </si>
-  <si>
-    <t>VAC0277</t>
-  </si>
-  <si>
-    <t>LIRUBEL</t>
-  </si>
-  <si>
-    <t>VAL185</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique non conjuguée, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0808</t>
-  </si>
-  <si>
-    <t>Vaccin Haemophilus influenzae b et Ménigocoque CY, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0059</t>
-  </si>
-  <si>
-    <t>TYPHERIX</t>
-  </si>
-  <si>
-    <t>VAL052</t>
-  </si>
-  <si>
-    <t>Valence papillomavirus, VLP, quadrivalente, types 6, 11, 16 et 18</t>
-  </si>
-  <si>
-    <t>VAL270</t>
-  </si>
-  <si>
-    <t>Valence méningocoque A, polyoside conjugué à l'anatoxine diphtérique</t>
-  </si>
-  <si>
-    <t>VAC1124</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à virus entier inactivé, en essai clinique, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1257</t>
-  </si>
-  <si>
-    <t>Vaccin Choléra, entier inactivé oral, bivalent contenant les bactéries V. cholerae O1 et O139 entières inactivées, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1342</t>
-  </si>
-  <si>
-    <t>IPVAX</t>
-  </si>
-  <si>
-    <t>VAC1039</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à ARNm, virus originel, 50 µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0495</t>
-  </si>
-  <si>
-    <t>BEXSERO</t>
-  </si>
-  <si>
-    <t>VAC0580</t>
-  </si>
-  <si>
-    <t>CLAIRYG</t>
-  </si>
-  <si>
-    <t>VAC0141</t>
-  </si>
-  <si>
-    <t>MENVEO</t>
-  </si>
-  <si>
-    <t>VAC0274</t>
-  </si>
-  <si>
-    <t>LANCY VAXINA</t>
-  </si>
-  <si>
-    <t>VAC0056</t>
-  </si>
-  <si>
-    <t>VACCIN TETANIQUE PASTEUR</t>
-  </si>
-  <si>
-    <t>VAC0189</t>
-  </si>
-  <si>
-    <t>ANADIFTERALL</t>
-  </si>
-  <si>
-    <t>VAL097</t>
-  </si>
-  <si>
-    <t>Valence diphtérique, anatoxine, dose standard</t>
-  </si>
-  <si>
-    <t>VAL182</t>
-  </si>
-  <si>
-    <t>Valence rougeole, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0805</t>
-  </si>
-  <si>
-    <t>Vaccin Choléra, entier inactivé, injectable, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0938</t>
-  </si>
-  <si>
-    <t>Vaccin Grippe quadrivalent, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1121</t>
-  </si>
-  <si>
-    <t>Vaccin hexavalent DTCaHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib-Polio-Hépatite B 10µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1387</t>
-  </si>
-  <si>
-    <t>SINSAVAC</t>
-  </si>
-  <si>
-    <t>VAC1036</t>
-  </si>
-  <si>
-    <t>SPIKEVAX BIVALENT ORIGINAL/OMICRON BA.4-5 25 µg/25 µg MODERNA</t>
-  </si>
-  <si>
-    <t>VAC1169</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 bivalent à ARNm contre le virus originel et le variant Omicron BA.4/5, 15 microgrammes, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1254</t>
-  </si>
-  <si>
-    <t>CAPVAXIVE</t>
-  </si>
-  <si>
-    <t>VAL409</t>
-  </si>
-  <si>
-    <t>Valence covid 19, variant Omicron KP.2, ARNm codant la protéine de pointe du SARS-CoV-2, 30 microgrammes</t>
-  </si>
-  <si>
-    <t>VAC0492</t>
-  </si>
-  <si>
-    <t>AFLURIA</t>
-  </si>
-  <si>
-    <t>VAC0360</t>
-  </si>
-  <si>
-    <t>RIMPARIX</t>
-  </si>
-  <si>
-    <t>VAC0275</t>
-  </si>
-  <si>
-    <t>LAVANTUU TIROKOTE</t>
-  </si>
-  <si>
-    <t>VAC0057</t>
-  </si>
-  <si>
-    <t>TWINRIX 20 µg</t>
-  </si>
-  <si>
-    <t>VAL183</t>
-  </si>
-  <si>
-    <t>Valence oreillons, sans précision</t>
-  </si>
-  <si>
-    <t>VAL050</t>
-  </si>
-  <si>
-    <t>Valence covid 19, vecteur viral non réplicatif, adénovirus 5 codant la protéine de pointe du SARS-CoV-2, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0939</t>
-  </si>
-  <si>
-    <t>PREHEVBRIO</t>
-  </si>
-  <si>
-    <t>VAC0806</t>
-  </si>
-  <si>
-    <t>Vaccin Choléra, vivant atténué, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1340</t>
-  </si>
-  <si>
-    <t>SPIKEVAX BA.1 0,1 mg/mL dose 50 µg</t>
-  </si>
-  <si>
-    <t>VAC1037</t>
-  </si>
-  <si>
-    <t>Vaccin Encéphalite à tiques, souche Neudörfl, dose pédiatrique, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1122</t>
-  </si>
-  <si>
-    <t>Vaccin Variole vivant de 1ère génération, sans précision</t>
-  </si>
-  <si>
-    <t>VAL098</t>
-  </si>
-  <si>
-    <t>Valence méningocoque B, 4 composants</t>
-  </si>
-  <si>
-    <t>VAC1255</t>
-  </si>
-  <si>
-    <t>HEXASIIL</t>
-  </si>
-  <si>
-    <t>VAC1388</t>
-  </si>
-  <si>
-    <t>BIVAC POLIO</t>
-  </si>
-  <si>
-    <t>VAL273</t>
-  </si>
-  <si>
-    <t>Valence méningocoque W, polyoside conjugué à l'anatoxine diphtérique</t>
-  </si>
-  <si>
-    <t>VAL140</t>
-  </si>
-  <si>
-    <t>Valence grippe, vivant atténué, sans précision</t>
-  </si>
-  <si>
-    <t>DIS066</t>
-  </si>
-  <si>
-    <t>Hantavirus</t>
-  </si>
-  <si>
-    <t>VAC1050</t>
-  </si>
-  <si>
-    <t>BEYFORTUS 100 mg (nirsevimab)</t>
-  </si>
-  <si>
-    <t>VAC1183</t>
-  </si>
-  <si>
-    <t>Vaccin Ebola à vecteur viral non réplicatif, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0648</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0999</t>
-  </si>
-  <si>
-    <t>WETVAX APSV</t>
-  </si>
-  <si>
-    <t>VAC0866</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque A conjugué, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1098</t>
-  </si>
-  <si>
-    <t>XANAFLU</t>
-  </si>
-  <si>
-    <t>VAC0515</t>
-  </si>
-  <si>
-    <t>INFANRIX-POLIO</t>
-  </si>
-  <si>
-    <t>DIS065</t>
-  </si>
-  <si>
-    <t>Fièvre Q</t>
-  </si>
-  <si>
-    <t>VAC0951</t>
-  </si>
-  <si>
-    <t>IMOVAX POLIO ORALE</t>
-  </si>
-  <si>
-    <t>VAC0600</t>
-  </si>
-  <si>
-    <t>Vaccin Poliomyélite bivalent OPV 1-3, sans précision</t>
-  </si>
-  <si>
-    <t>VAL188</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 4</t>
-  </si>
-  <si>
-    <t>VAC0733</t>
-  </si>
-  <si>
-    <t>HEPLISAV-B</t>
-  </si>
-  <si>
-    <t>VAL055</t>
-  </si>
-  <si>
-    <t>Valence rougeole, immunoglobuline</t>
-  </si>
-  <si>
-    <t>VAC0070</t>
-  </si>
-  <si>
-    <t>DT BIS</t>
-  </si>
-  <si>
-    <t>VAL141</t>
-  </si>
-  <si>
-    <t>Valence rotavirus, vivant atténué, monovalent RIX4414</t>
-  </si>
-  <si>
-    <t>VAC1051</t>
-  </si>
-  <si>
-    <t>PFIZER COMIRNATY-30 XBB.1.5</t>
-  </si>
-  <si>
-    <t>VAC0867</t>
-  </si>
-  <si>
-    <t>Antitoxine Diphtérie, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1099</t>
-  </si>
-  <si>
-    <t>BABYBIG</t>
-  </si>
-  <si>
-    <t>VAC0649</t>
-  </si>
-  <si>
-    <t>EFLUELDA QIV-HD</t>
-  </si>
-  <si>
-    <t>VAC0516</t>
-  </si>
-  <si>
-    <t>ABHAYRAB</t>
-  </si>
-  <si>
-    <t>VAC0734</t>
-  </si>
-  <si>
-    <t>POLIO BOOSTRIX</t>
-  </si>
-  <si>
-    <t>DIS064</t>
-  </si>
-  <si>
-    <t>Encéphalite équine vénézuélienne</t>
-  </si>
-  <si>
-    <t>VAC1184</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque C polyosidique conjugué à l'anatoxine tétanique, sans précision</t>
-  </si>
-  <si>
-    <t>VAL189</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 5</t>
-  </si>
-  <si>
-    <t>VAL056</t>
-  </si>
-  <si>
-    <t>Valence poliomyélite, trivalente, inactivée, entière, injectable</t>
-  </si>
-  <si>
-    <t>VAC0601</t>
-  </si>
-  <si>
-    <t>Vaccin DTC - Diphtérie-Tétanos-Coqueluche, sans précision</t>
-  </si>
-  <si>
-    <t>VAL274</t>
-  </si>
-  <si>
-    <t>Valence méningocoque W, polyoside conjugué à la protéine CRM197</t>
-  </si>
-  <si>
-    <t>VAC0952</t>
-  </si>
-  <si>
-    <t>IMOVAX COLERA</t>
-  </si>
-  <si>
-    <t>VAC0071</t>
-  </si>
-  <si>
-    <t>D.T. BIS - RUDIVAX</t>
-  </si>
-  <si>
-    <t>VAC1409</t>
-  </si>
-  <si>
-    <t>Vaccin à ARNm contre la covid 19 , subvariant Omicron JN.1, 50 microgrammes par dose, flacon multidose</t>
-  </si>
-  <si>
-    <t>VAL053</t>
-  </si>
-  <si>
-    <t>Valence covid 19, sous-unité protéique, sans précision</t>
-  </si>
-  <si>
-    <t>VAL271</t>
-  </si>
-  <si>
-    <t>Valence méningocoque A, polyoside conjugué à l'anatoxine tétanique</t>
-  </si>
-  <si>
-    <t>VAC1181</t>
-  </si>
-  <si>
-    <t>Vaccin pentavalent DTCeHibHepB - Diphtérie-Tétanos-Coqueluche-Hib PRP-HépatiteB 10µg, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0428</t>
-  </si>
-  <si>
-    <t>VA-MENGOC-BC</t>
-  </si>
-  <si>
-    <t>DIS063</t>
-  </si>
-  <si>
-    <t>Adénovirus</t>
-  </si>
-  <si>
-    <t>VAC0646</t>
-  </si>
-  <si>
-    <t>CECOLIN</t>
-  </si>
-  <si>
-    <t>VAC0779</t>
-  </si>
-  <si>
-    <t>BATREVAC</t>
-  </si>
-  <si>
-    <t>VAC1096</t>
-  </si>
-  <si>
-    <t>MORCVAX</t>
-  </si>
-  <si>
-    <t>VAC0513</t>
-  </si>
-  <si>
-    <t>HEPATYRIX</t>
-  </si>
-  <si>
-    <t>VAC0997</t>
-  </si>
-  <si>
-    <t>Vaccin Pneumocoque conjugué 13-valent, sans précision</t>
-  </si>
-  <si>
-    <t>VAL186</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 1</t>
-  </si>
-  <si>
-    <t>VAC0864</t>
-  </si>
-  <si>
-    <t>Immunoglobuline Varicelle, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0731</t>
-  </si>
-  <si>
-    <t>DITANRIX</t>
-  </si>
-  <si>
-    <t>VAC1408</t>
-  </si>
-  <si>
-    <t>ENIVACHB</t>
-  </si>
-  <si>
-    <t>VAL272</t>
-  </si>
-  <si>
-    <t>Valence méningocoque W, polyoside conjugué à l'anatoxine tétanique</t>
-  </si>
-  <si>
-    <t>VAC1182</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque ACWY polyosidique conjugué à l'anatoxine tétanique, sans précision</t>
-  </si>
-  <si>
-    <t>VAC0429</t>
-  </si>
-  <si>
-    <t>VACCIN COMBINAT DIFTERO-TETANIC</t>
-  </si>
-  <si>
-    <t>DIS062</t>
-  </si>
-  <si>
-    <t>Fièvre hémorragique d'Argentine</t>
-  </si>
-  <si>
-    <t>VAC0998</t>
-  </si>
-  <si>
-    <t>LC16</t>
-  </si>
-  <si>
-    <t>VAC1097</t>
-  </si>
-  <si>
-    <t>CYTOGAM</t>
-  </si>
-  <si>
-    <t>VAC0647</t>
-  </si>
-  <si>
-    <t>ROTASIIL</t>
-  </si>
-  <si>
-    <t>VAC0514</t>
-  </si>
-  <si>
-    <t>ROTARIX</t>
-  </si>
-  <si>
-    <t>VAC0732</t>
-  </si>
-  <si>
-    <t>COVAC-1 - COVAC-2</t>
-  </si>
-  <si>
-    <t>VAC0950</t>
-  </si>
-  <si>
-    <t>IMOVAX DTP</t>
-  </si>
-  <si>
-    <t>VAL187</t>
-  </si>
-  <si>
-    <t>Valence pneumocoque, polyosidique conjuguée, sérotype 3</t>
-  </si>
-  <si>
-    <t>VAC0865</t>
-  </si>
-  <si>
-    <t>Vaccin Méningocoque A non conjugué, sans précision</t>
-  </si>
-  <si>
-    <t>VAL054</t>
-  </si>
-  <si>
-    <t>Valence covid 19, vecteur non réplicatif, vaccine Ankara modifiée codant la protéine de pointe du SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>VAC0074</t>
-  </si>
-  <si>
-    <t>D.T. COQ MERIEUX</t>
-  </si>
-  <si>
-    <t>VAC0955</t>
-  </si>
-  <si>
-    <t>PULMOVAX</t>
-  </si>
-  <si>
-    <t>VAC0737</t>
-  </si>
-  <si>
-    <t>GBP510</t>
-  </si>
-  <si>
-    <t>VAC0822</t>
-  </si>
-  <si>
-    <t>Vaccin Grippe vivant atténué, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1054</t>
-  </si>
-  <si>
-    <t>COMIRNATY ORIGINAL/OMICRON BA.4-5 (1,5/1,5 µg)</t>
-  </si>
-  <si>
-    <t>VAC1187</t>
-  </si>
-  <si>
-    <t>Vaccin Covid 19 à vecteur viral réplicatif, virus de la rougeole codant la protéine de pointe du SARS-CoV-2, sans précision</t>
-  </si>
-  <si>
-    <t>VAL059</t>
-  </si>
-  <si>
-    <t>Valence grippe, quadrivalente, vivante atténuée, dose normale</t>
-  </si>
-  <si>
-    <t>VAC1272</t>
-  </si>
-  <si>
-    <t>PSEUDOVAC</t>
-  </si>
-  <si>
-    <t>VAL277</t>
-  </si>
-  <si>
-    <t>Valence méningocoque Y, polyoside conjugué à l'anatoxine diphtérique</t>
-  </si>
-  <si>
-    <t>VAL144</t>
-  </si>
-  <si>
-    <t>Valence hépatite A, inactivée, entière, monovalente, dose adulte</t>
-  </si>
-  <si>
-    <t>VAL011</t>
-  </si>
-  <si>
-    <t>Valence covid 19, sous-unité protéique, protéine de pointe recombinante (domaine RBD)</t>
-  </si>
-  <si>
-    <t>VAL362</t>
-  </si>
-  <si>
-    <t>Valence grippe, virosomal, sans précision</t>
-  </si>
-  <si>
-    <t>DIS061</t>
-  </si>
-  <si>
-    <t>Tularémie</t>
-  </si>
-  <si>
-    <t>VAC0292</t>
-  </si>
-  <si>
-    <t>MEASLES VACCINE DK3</t>
-  </si>
-  <si>
-    <t>VAC0293</t>
-  </si>
-  <si>
-    <t>MENAFRIVAC</t>
-  </si>
-  <si>
-    <t>VAC0739</t>
-  </si>
-  <si>
-    <t>RAZI COV PARS</t>
-  </si>
-  <si>
-    <t>VAC0823</t>
-  </si>
-  <si>
-    <t>Vaccin Grippe VLP, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1055</t>
-  </si>
-  <si>
-    <t>NUVAXOVID XBB.1.5</t>
-  </si>
-  <si>
-    <t>VAL278</t>
-  </si>
-  <si>
-    <t>Valence Adénovirus, vivant atténué, voie orale, sans précision</t>
-  </si>
-  <si>
-    <t>VAC1140</t>
-  </si>
-  <si>
     <t>VAC0956</t>
   </si>
   <si>
@@ -10166,7 +10169,7 @@
     <t>VAC1225</t>
   </si>
   <si>
-    <t>Vaccin Diphtérie, Tétanos, Typhoïde et Paratyphoïde A et B, sans précision</t>
+    <t>DT-TAB - Vaccin Diphtérie, Tétanos, Typhoïde et Paratyphoïde A et B, sans précision</t>
   </si>
   <si>
     <t>VAC1358</t>
@@ -29541,7 +29544,7 @@
         <v>3007</v>
       </c>
       <c r="C1464" t="s" s="2">
-        <v>2410</v>
+        <v>3008</v>
       </c>
       <c r="D1464" s="2"/>
     </row>
@@ -29550,10 +29553,10 @@
         <v>82</v>
       </c>
       <c r="B1465" t="s" s="2">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="C1465" t="s" s="2">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="D1465" s="2"/>
     </row>
@@ -29562,10 +29565,10 @@
         <v>82</v>
       </c>
       <c r="B1466" t="s" s="2">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C1466" t="s" s="2">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D1466" s="2"/>
     </row>
@@ -29574,10 +29577,10 @@
         <v>82</v>
       </c>
       <c r="B1467" t="s" s="2">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="C1467" t="s" s="2">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="D1467" s="2"/>
     </row>
@@ -29586,10 +29589,10 @@
         <v>82</v>
       </c>
       <c r="B1468" t="s" s="2">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C1468" t="s" s="2">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D1468" s="2"/>
     </row>
@@ -29598,10 +29601,10 @@
         <v>82</v>
       </c>
       <c r="B1469" t="s" s="2">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C1469" t="s" s="2">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="D1469" s="2"/>
     </row>
@@ -29610,10 +29613,10 @@
         <v>82</v>
       </c>
       <c r="B1470" t="s" s="2">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C1470" t="s" s="2">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D1470" s="2"/>
     </row>
@@ -29622,10 +29625,10 @@
         <v>82</v>
       </c>
       <c r="B1471" t="s" s="2">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C1471" t="s" s="2">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="D1471" s="2"/>
     </row>
@@ -29634,10 +29637,10 @@
         <v>82</v>
       </c>
       <c r="B1472" t="s" s="2">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="C1472" t="s" s="2">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="D1472" s="2"/>
     </row>
@@ -29646,10 +29649,10 @@
         <v>82</v>
       </c>
       <c r="B1473" t="s" s="2">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C1473" t="s" s="2">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="D1473" s="2"/>
     </row>
@@ -29658,10 +29661,10 @@
         <v>82</v>
       </c>
       <c r="B1474" t="s" s="2">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C1474" t="s" s="2">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D1474" s="2"/>
     </row>
@@ -29670,10 +29673,10 @@
         <v>82</v>
       </c>
       <c r="B1475" t="s" s="2">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C1475" t="s" s="2">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D1475" s="2"/>
     </row>
@@ -29682,10 +29685,10 @@
         <v>82</v>
       </c>
       <c r="B1476" t="s" s="2">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C1476" t="s" s="2">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D1476" s="2"/>
     </row>
@@ -29694,10 +29697,10 @@
         <v>82</v>
       </c>
       <c r="B1477" t="s" s="2">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C1477" t="s" s="2">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D1477" s="2"/>
     </row>
@@ -29706,10 +29709,10 @@
         <v>82</v>
       </c>
       <c r="B1478" t="s" s="2">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C1478" t="s" s="2">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D1478" s="2"/>
     </row>
@@ -29718,10 +29721,10 @@
         <v>82</v>
       </c>
       <c r="B1479" t="s" s="2">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C1479" t="s" s="2">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="D1479" s="2"/>
     </row>
@@ -29730,10 +29733,10 @@
         <v>82</v>
       </c>
       <c r="B1480" t="s" s="2">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C1480" t="s" s="2">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D1480" s="2"/>
     </row>
@@ -29742,10 +29745,10 @@
         <v>82</v>
       </c>
       <c r="B1481" t="s" s="2">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C1481" t="s" s="2">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="D1481" s="2"/>
     </row>
@@ -29754,10 +29757,10 @@
         <v>82</v>
       </c>
       <c r="B1482" t="s" s="2">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C1482" t="s" s="2">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="D1482" s="2"/>
     </row>
@@ -29766,10 +29769,10 @@
         <v>82</v>
       </c>
       <c r="B1483" t="s" s="2">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C1483" t="s" s="2">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="D1483" s="2"/>
     </row>
@@ -29778,10 +29781,10 @@
         <v>82</v>
       </c>
       <c r="B1484" t="s" s="2">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C1484" t="s" s="2">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D1484" s="2"/>
     </row>
@@ -29790,10 +29793,10 @@
         <v>82</v>
       </c>
       <c r="B1485" t="s" s="2">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="C1485" t="s" s="2">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="D1485" s="2"/>
     </row>
@@ -29802,10 +29805,10 @@
         <v>82</v>
       </c>
       <c r="B1486" t="s" s="2">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C1486" t="s" s="2">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D1486" s="2"/>
     </row>
@@ -29814,10 +29817,10 @@
         <v>82</v>
       </c>
       <c r="B1487" t="s" s="2">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C1487" t="s" s="2">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D1487" s="2"/>
     </row>
@@ -29826,10 +29829,10 @@
         <v>82</v>
       </c>
       <c r="B1488" t="s" s="2">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C1488" t="s" s="2">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="D1488" s="2"/>
     </row>
@@ -29838,10 +29841,10 @@
         <v>82</v>
       </c>
       <c r="B1489" t="s" s="2">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="C1489" t="s" s="2">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="D1489" s="2"/>
     </row>
@@ -29850,10 +29853,10 @@
         <v>82</v>
       </c>
       <c r="B1490" t="s" s="2">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C1490" t="s" s="2">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D1490" s="2"/>
     </row>
@@ -29862,10 +29865,10 @@
         <v>82</v>
       </c>
       <c r="B1491" t="s" s="2">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="C1491" t="s" s="2">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="D1491" s="2"/>
     </row>
@@ -29874,10 +29877,10 @@
         <v>82</v>
       </c>
       <c r="B1492" t="s" s="2">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="C1492" t="s" s="2">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D1492" s="2"/>
     </row>
@@ -29886,10 +29889,10 @@
         <v>82</v>
       </c>
       <c r="B1493" t="s" s="2">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C1493" t="s" s="2">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="D1493" s="2"/>
     </row>
@@ -29898,10 +29901,10 @@
         <v>82</v>
       </c>
       <c r="B1494" t="s" s="2">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C1494" t="s" s="2">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="D1494" s="2"/>
     </row>
@@ -29910,10 +29913,10 @@
         <v>82</v>
       </c>
       <c r="B1495" t="s" s="2">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="C1495" t="s" s="2">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D1495" s="2"/>
     </row>
@@ -29922,10 +29925,10 @@
         <v>82</v>
       </c>
       <c r="B1496" t="s" s="2">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C1496" t="s" s="2">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D1496" s="2"/>
     </row>
@@ -29934,10 +29937,10 @@
         <v>82</v>
       </c>
       <c r="B1497" t="s" s="2">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="C1497" t="s" s="2">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D1497" s="2"/>
     </row>
@@ -29946,10 +29949,10 @@
         <v>82</v>
       </c>
       <c r="B1498" t="s" s="2">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="C1498" t="s" s="2">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="D1498" s="2"/>
     </row>
@@ -29958,10 +29961,10 @@
         <v>82</v>
       </c>
       <c r="B1499" t="s" s="2">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C1499" t="s" s="2">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D1499" s="2"/>
     </row>
@@ -29970,10 +29973,10 @@
         <v>82</v>
       </c>
       <c r="B1500" t="s" s="2">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C1500" t="s" s="2">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="D1500" s="2"/>
     </row>
@@ -29982,10 +29985,10 @@
         <v>82</v>
       </c>
       <c r="B1501" t="s" s="2">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C1501" t="s" s="2">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="D1501" s="2"/>
     </row>
@@ -29994,10 +29997,10 @@
         <v>82</v>
       </c>
       <c r="B1502" t="s" s="2">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C1502" t="s" s="2">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D1502" s="2"/>
     </row>
@@ -30006,10 +30009,10 @@
         <v>82</v>
       </c>
       <c r="B1503" t="s" s="2">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C1503" t="s" s="2">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D1503" s="2"/>
     </row>
@@ -30018,10 +30021,10 @@
         <v>82</v>
       </c>
       <c r="B1504" t="s" s="2">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="C1504" t="s" s="2">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="D1504" s="2"/>
     </row>
@@ -30030,10 +30033,10 @@
         <v>82</v>
       </c>
       <c r="B1505" t="s" s="2">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C1505" t="s" s="2">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D1505" s="2"/>
     </row>
@@ -30042,10 +30045,10 @@
         <v>82</v>
       </c>
       <c r="B1506" t="s" s="2">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C1506" t="s" s="2">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D1506" s="2"/>
     </row>
@@ -30054,10 +30057,10 @@
         <v>82</v>
       </c>
       <c r="B1507" t="s" s="2">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C1507" t="s" s="2">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="D1507" s="2"/>
     </row>
@@ -30066,10 +30069,10 @@
         <v>82</v>
       </c>
       <c r="B1508" t="s" s="2">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C1508" t="s" s="2">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="D1508" s="2"/>
     </row>
@@ -30078,10 +30081,10 @@
         <v>82</v>
       </c>
       <c r="B1509" t="s" s="2">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C1509" t="s" s="2">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="D1509" s="2"/>
     </row>
@@ -30090,10 +30093,10 @@
         <v>82</v>
       </c>
       <c r="B1510" t="s" s="2">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="C1510" t="s" s="2">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="D1510" s="2"/>
     </row>
@@ -30102,10 +30105,10 @@
         <v>82</v>
       </c>
       <c r="B1511" t="s" s="2">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C1511" t="s" s="2">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="D1511" s="2"/>
     </row>
@@ -30114,10 +30117,10 @@
         <v>82</v>
       </c>
       <c r="B1512" t="s" s="2">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C1512" t="s" s="2">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D1512" s="2"/>
     </row>
@@ -30126,10 +30129,10 @@
         <v>82</v>
       </c>
       <c r="B1513" t="s" s="2">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="C1513" t="s" s="2">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="D1513" s="2"/>
     </row>
@@ -30138,10 +30141,10 @@
         <v>82</v>
       </c>
       <c r="B1514" t="s" s="2">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="C1514" t="s" s="2">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="D1514" s="2"/>
     </row>
@@ -30150,10 +30153,10 @@
         <v>82</v>
       </c>
       <c r="B1515" t="s" s="2">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="C1515" t="s" s="2">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="D1515" s="2"/>
     </row>
@@ -30162,10 +30165,10 @@
         <v>82</v>
       </c>
       <c r="B1516" t="s" s="2">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C1516" t="s" s="2">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="D1516" s="2"/>
     </row>
@@ -30174,10 +30177,10 @@
         <v>82</v>
       </c>
       <c r="B1517" t="s" s="2">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C1517" t="s" s="2">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D1517" s="2"/>
     </row>
@@ -30186,10 +30189,10 @@
         <v>82</v>
       </c>
       <c r="B1518" t="s" s="2">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C1518" t="s" s="2">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="D1518" s="2"/>
     </row>
@@ -30198,10 +30201,10 @@
         <v>82</v>
       </c>
       <c r="B1519" t="s" s="2">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="C1519" t="s" s="2">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D1519" s="2"/>
     </row>
@@ -30210,10 +30213,10 @@
         <v>82</v>
       </c>
       <c r="B1520" t="s" s="2">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C1520" t="s" s="2">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D1520" s="2"/>
     </row>
@@ -30222,10 +30225,10 @@
         <v>82</v>
       </c>
       <c r="B1521" t="s" s="2">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C1521" t="s" s="2">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="D1521" s="2"/>
     </row>
@@ -30234,10 +30237,10 @@
         <v>82</v>
       </c>
       <c r="B1522" t="s" s="2">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C1522" t="s" s="2">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="D1522" s="2"/>
     </row>
@@ -30246,10 +30249,10 @@
         <v>82</v>
       </c>
       <c r="B1523" t="s" s="2">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1523" t="s" s="2">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D1523" s="2"/>
     </row>
@@ -30258,10 +30261,10 @@
         <v>82</v>
       </c>
       <c r="B1524" t="s" s="2">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C1524" t="s" s="2">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D1524" s="2"/>
     </row>
@@ -30270,10 +30273,10 @@
         <v>82</v>
       </c>
       <c r="B1525" t="s" s="2">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C1525" t="s" s="2">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="D1525" s="2"/>
     </row>
@@ -30282,10 +30285,10 @@
         <v>82</v>
       </c>
       <c r="B1526" t="s" s="2">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C1526" t="s" s="2">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D1526" s="2"/>
     </row>
@@ -30294,10 +30297,10 @@
         <v>82</v>
       </c>
       <c r="B1527" t="s" s="2">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C1527" t="s" s="2">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D1527" s="2"/>
     </row>
@@ -30306,10 +30309,10 @@
         <v>82</v>
       </c>
       <c r="B1528" t="s" s="2">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="C1528" t="s" s="2">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="D1528" s="2"/>
     </row>
@@ -30318,10 +30321,10 @@
         <v>82</v>
       </c>
       <c r="B1529" t="s" s="2">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1529" t="s" s="2">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D1529" s="2"/>
     </row>
@@ -30330,10 +30333,10 @@
         <v>82</v>
       </c>
       <c r="B1530" t="s" s="2">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="C1530" t="s" s="2">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="D1530" s="2"/>
     </row>
@@ -30342,10 +30345,10 @@
         <v>82</v>
       </c>
       <c r="B1531" t="s" s="2">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C1531" t="s" s="2">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="D1531" s="2"/>
     </row>
@@ -30354,10 +30357,10 @@
         <v>82</v>
       </c>
       <c r="B1532" t="s" s="2">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C1532" t="s" s="2">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D1532" s="2"/>
     </row>
@@ -30366,10 +30369,10 @@
         <v>82</v>
       </c>
       <c r="B1533" t="s" s="2">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C1533" t="s" s="2">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="D1533" s="2"/>
     </row>
@@ -30378,10 +30381,10 @@
         <v>82</v>
       </c>
       <c r="B1534" t="s" s="2">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="C1534" t="s" s="2">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="D1534" s="2"/>
     </row>
@@ -30390,10 +30393,10 @@
         <v>82</v>
       </c>
       <c r="B1535" t="s" s="2">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C1535" t="s" s="2">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D1535" s="2"/>
     </row>
@@ -30402,10 +30405,10 @@
         <v>82</v>
       </c>
       <c r="B1536" t="s" s="2">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="C1536" t="s" s="2">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="D1536" s="2"/>
     </row>
@@ -30414,10 +30417,10 @@
         <v>82</v>
       </c>
       <c r="B1537" t="s" s="2">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="C1537" t="s" s="2">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="D1537" s="2"/>
     </row>
@@ -30426,10 +30429,10 @@
         <v>82</v>
       </c>
       <c r="B1538" t="s" s="2">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="C1538" t="s" s="2">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="D1538" s="2"/>
     </row>
@@ -30438,10 +30441,10 @@
         <v>82</v>
       </c>
       <c r="B1539" t="s" s="2">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C1539" t="s" s="2">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="D1539" s="2"/>
     </row>
@@ -30450,10 +30453,10 @@
         <v>82</v>
       </c>
       <c r="B1540" t="s" s="2">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C1540" t="s" s="2">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="D1540" s="2"/>
     </row>
@@ -30462,10 +30465,10 @@
         <v>82</v>
       </c>
       <c r="B1541" t="s" s="2">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1541" t="s" s="2">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D1541" s="2"/>
     </row>
@@ -30474,10 +30477,10 @@
         <v>82</v>
       </c>
       <c r="B1542" t="s" s="2">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C1542" t="s" s="2">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="D1542" s="2"/>
     </row>
@@ -30486,10 +30489,10 @@
         <v>82</v>
       </c>
       <c r="B1543" t="s" s="2">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C1543" t="s" s="2">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="D1543" s="2"/>
     </row>
@@ -30498,10 +30501,10 @@
         <v>82</v>
       </c>
       <c r="B1544" t="s" s="2">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C1544" t="s" s="2">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="D1544" s="2"/>
     </row>
@@ -30510,10 +30513,10 @@
         <v>82</v>
       </c>
       <c r="B1545" t="s" s="2">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C1545" t="s" s="2">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="D1545" s="2"/>
     </row>
@@ -30522,10 +30525,10 @@
         <v>82</v>
       </c>
       <c r="B1546" t="s" s="2">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C1546" t="s" s="2">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="D1546" s="2"/>
     </row>
@@ -30534,10 +30537,10 @@
         <v>82</v>
       </c>
       <c r="B1547" t="s" s="2">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C1547" t="s" s="2">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D1547" s="2"/>
     </row>
@@ -30546,10 +30549,10 @@
         <v>82</v>
       </c>
       <c r="B1548" t="s" s="2">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C1548" t="s" s="2">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="D1548" s="2"/>
     </row>
@@ -30558,10 +30561,10 @@
         <v>82</v>
       </c>
       <c r="B1549" t="s" s="2">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="C1549" t="s" s="2">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="D1549" s="2"/>
     </row>
@@ -30570,10 +30573,10 @@
         <v>82</v>
       </c>
       <c r="B1550" t="s" s="2">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C1550" t="s" s="2">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D1550" s="2"/>
     </row>
@@ -30582,10 +30585,10 @@
         <v>82</v>
       </c>
       <c r="B1551" t="s" s="2">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="C1551" t="s" s="2">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="D1551" s="2"/>
     </row>
@@ -30594,10 +30597,10 @@
         <v>82</v>
       </c>
       <c r="B1552" t="s" s="2">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="C1552" t="s" s="2">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="D1552" s="2"/>
     </row>
@@ -30606,10 +30609,10 @@
         <v>82</v>
       </c>
       <c r="B1553" t="s" s="2">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C1553" t="s" s="2">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="D1553" s="2"/>
     </row>
@@ -30618,10 +30621,10 @@
         <v>82</v>
       </c>
       <c r="B1554" t="s" s="2">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="C1554" t="s" s="2">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="D1554" s="2"/>
     </row>
@@ -30630,10 +30633,10 @@
         <v>82</v>
       </c>
       <c r="B1555" t="s" s="2">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="C1555" t="s" s="2">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="D1555" s="2"/>
     </row>
@@ -30642,10 +30645,10 @@
         <v>82</v>
       </c>
       <c r="B1556" t="s" s="2">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C1556" t="s" s="2">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="D1556" s="2"/>
     </row>
@@ -30654,10 +30657,10 @@
         <v>82</v>
       </c>
       <c r="B1557" t="s" s="2">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="C1557" t="s" s="2">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="D1557" s="2"/>
     </row>
@@ -30666,10 +30669,10 @@
         <v>82</v>
       </c>
       <c r="B1558" t="s" s="2">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="C1558" t="s" s="2">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="D1558" s="2"/>
     </row>
@@ -30678,10 +30681,10 @@
         <v>82</v>
       </c>
       <c r="B1559" t="s" s="2">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="C1559" t="s" s="2">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="D1559" s="2"/>
     </row>
@@ -30690,10 +30693,10 @@
         <v>82</v>
       </c>
       <c r="B1560" t="s" s="2">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="C1560" t="s" s="2">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="D1560" s="2"/>
     </row>
@@ -30702,10 +30705,10 @@
         <v>82</v>
       </c>
       <c r="B1561" t="s" s="2">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C1561" t="s" s="2">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D1561" s="2"/>
     </row>
@@ -30714,10 +30717,10 @@
         <v>82</v>
       </c>
       <c r="B1562" t="s" s="2">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="C1562" t="s" s="2">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="D1562" s="2"/>
     </row>
@@ -30726,10 +30729,10 @@
         <v>82</v>
       </c>
       <c r="B1563" t="s" s="2">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="C1563" t="s" s="2">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D1563" s="2"/>
     </row>
@@ -30738,10 +30741,10 @@
         <v>82</v>
       </c>
       <c r="B1564" t="s" s="2">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C1564" t="s" s="2">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D1564" s="2"/>
     </row>
@@ -30750,10 +30753,10 @@
         <v>82</v>
       </c>
       <c r="B1565" t="s" s="2">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C1565" t="s" s="2">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D1565" s="2"/>
     </row>
@@ -30762,10 +30765,10 @@
         <v>82</v>
       </c>
       <c r="B1566" t="s" s="2">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C1566" t="s" s="2">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D1566" s="2"/>
     </row>
@@ -30774,10 +30777,10 @@
         <v>82</v>
       </c>
       <c r="B1567" t="s" s="2">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="C1567" t="s" s="2">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="D1567" s="2"/>
     </row>
@@ -30786,10 +30789,10 @@
         <v>82</v>
       </c>
       <c r="B1568" t="s" s="2">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="C1568" t="s" s="2">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="D1568" s="2"/>
     </row>
@@ -30798,10 +30801,10 @@
         <v>82</v>
       </c>
       <c r="B1569" t="s" s="2">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="C1569" t="s" s="2">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="D1569" s="2"/>
     </row>
@@ -30810,10 +30813,10 @@
         <v>82</v>
       </c>
       <c r="B1570" t="s" s="2">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="C1570" t="s" s="2">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="D1570" s="2"/>
     </row>
@@ -30822,10 +30825,10 @@
         <v>82</v>
       </c>
       <c r="B1571" t="s" s="2">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="C1571" t="s" s="2">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="D1571" s="2"/>
     </row>
@@ -30834,10 +30837,10 @@
         <v>82</v>
       </c>
       <c r="B1572" t="s" s="2">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="C1572" t="s" s="2">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="D1572" s="2"/>
     </row>
@@ -30846,10 +30849,10 @@
         <v>82</v>
       </c>
       <c r="B1573" t="s" s="2">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C1573" t="s" s="2">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="D1573" s="2"/>
     </row>
@@ -30858,10 +30861,10 @@
         <v>82</v>
       </c>
       <c r="B1574" t="s" s="2">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C1574" t="s" s="2">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="D1574" s="2"/>
     </row>
@@ -30870,10 +30873,10 @@
         <v>82</v>
       </c>
       <c r="B1575" t="s" s="2">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="C1575" t="s" s="2">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="D1575" s="2"/>
     </row>
@@ -30882,10 +30885,10 @@
         <v>82</v>
       </c>
       <c r="B1576" t="s" s="2">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="C1576" t="s" s="2">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="D1576" s="2"/>
     </row>
@@ -30894,10 +30897,10 @@
         <v>82</v>
       </c>
       <c r="B1577" t="s" s="2">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C1577" t="s" s="2">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="D1577" s="2"/>
     </row>
@@ -30906,10 +30909,10 @@
         <v>82</v>
       </c>
       <c r="B1578" t="s" s="2">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1578" t="s" s="2">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="D1578" s="2"/>
     </row>
@@ -30918,10 +30921,10 @@
         <v>82</v>
       </c>
       <c r="B1579" t="s" s="2">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C1579" t="s" s="2">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="D1579" s="2"/>
     </row>
@@ -30930,10 +30933,10 @@
         <v>82</v>
       </c>
       <c r="B1580" t="s" s="2">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C1580" t="s" s="2">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D1580" s="2"/>
     </row>
@@ -30942,10 +30945,10 @@
         <v>82</v>
       </c>
       <c r="B1581" t="s" s="2">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C1581" t="s" s="2">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="D1581" s="2"/>
     </row>
@@ -30954,10 +30957,10 @@
         <v>82</v>
       </c>
       <c r="B1582" t="s" s="2">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1582" t="s" s="2">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="D1582" s="2"/>
     </row>
@@ -30966,10 +30969,10 @@
         <v>82</v>
       </c>
       <c r="B1583" t="s" s="2">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1583" t="s" s="2">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="D1583" s="2"/>
     </row>
@@ -30978,10 +30981,10 @@
         <v>82</v>
       </c>
       <c r="B1584" t="s" s="2">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="C1584" t="s" s="2">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="D1584" s="2"/>
     </row>
@@ -30990,10 +30993,10 @@
         <v>82</v>
       </c>
       <c r="B1585" t="s" s="2">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="C1585" t="s" s="2">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="D1585" s="2"/>
     </row>
@@ -31002,10 +31005,10 @@
         <v>82</v>
       </c>
       <c r="B1586" t="s" s="2">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C1586" t="s" s="2">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="D1586" s="2"/>
     </row>
@@ -31014,10 +31017,10 @@
         <v>82</v>
       </c>
       <c r="B1587" t="s" s="2">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="C1587" t="s" s="2">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="D1587" s="2"/>
     </row>
@@ -31026,10 +31029,10 @@
         <v>82</v>
       </c>
       <c r="B1588" t="s" s="2">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="C1588" t="s" s="2">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="D1588" s="2"/>
     </row>
@@ -31038,10 +31041,10 @@
         <v>82</v>
       </c>
       <c r="B1589" t="s" s="2">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="C1589" t="s" s="2">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="D1589" s="2"/>
     </row>
@@ -31050,10 +31053,10 @@
         <v>82</v>
       </c>
       <c r="B1590" t="s" s="2">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C1590" t="s" s="2">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="D1590" s="2"/>
     </row>
@@ -31062,10 +31065,10 @@
         <v>82</v>
       </c>
       <c r="B1591" t="s" s="2">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="C1591" t="s" s="2">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="D1591" s="2"/>
     </row>
@@ -31074,10 +31077,10 @@
         <v>82</v>
       </c>
       <c r="B1592" t="s" s="2">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="C1592" t="s" s="2">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="D1592" s="2"/>
     </row>
@@ -31086,10 +31089,10 @@
         <v>82</v>
       </c>
       <c r="B1593" t="s" s="2">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C1593" t="s" s="2">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D1593" s="2"/>
     </row>
@@ -31098,10 +31101,10 @@
         <v>82</v>
       </c>
       <c r="B1594" t="s" s="2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="C1594" t="s" s="2">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="D1594" s="2"/>
     </row>
@@ -31110,10 +31113,10 @@
         <v>82</v>
       </c>
       <c r="B1595" t="s" s="2">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="C1595" t="s" s="2">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="D1595" s="2"/>
     </row>
@@ -31122,10 +31125,10 @@
         <v>82</v>
       </c>
       <c r="B1596" t="s" s="2">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="C1596" t="s" s="2">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="D1596" s="2"/>
     </row>
@@ -31134,10 +31137,10 @@
         <v>82</v>
       </c>
       <c r="B1597" t="s" s="2">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="C1597" t="s" s="2">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="D1597" s="2"/>
     </row>
@@ -31146,10 +31149,10 @@
         <v>82</v>
       </c>
       <c r="B1598" t="s" s="2">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C1598" t="s" s="2">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="D1598" s="2"/>
     </row>
@@ -31158,10 +31161,10 @@
         <v>82</v>
       </c>
       <c r="B1599" t="s" s="2">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C1599" t="s" s="2">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="D1599" s="2"/>
     </row>
@@ -31170,10 +31173,10 @@
         <v>82</v>
       </c>
       <c r="B1600" t="s" s="2">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="C1600" t="s" s="2">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="D1600" s="2"/>
     </row>
@@ -31182,10 +31185,10 @@
         <v>82</v>
       </c>
       <c r="B1601" t="s" s="2">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="C1601" t="s" s="2">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="D1601" s="2"/>
     </row>
@@ -31194,10 +31197,10 @@
         <v>82</v>
       </c>
       <c r="B1602" t="s" s="2">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C1602" t="s" s="2">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="D1602" s="2"/>
     </row>
@@ -31206,10 +31209,10 @@
         <v>82</v>
       </c>
       <c r="B1603" t="s" s="2">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="C1603" t="s" s="2">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="D1603" s="2"/>
     </row>
@@ -31218,10 +31221,10 @@
         <v>82</v>
       </c>
       <c r="B1604" t="s" s="2">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C1604" t="s" s="2">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="D1604" s="2"/>
     </row>
@@ -31230,10 +31233,10 @@
         <v>82</v>
       </c>
       <c r="B1605" t="s" s="2">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C1605" t="s" s="2">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D1605" s="2"/>
     </row>
@@ -31242,10 +31245,10 @@
         <v>82</v>
       </c>
       <c r="B1606" t="s" s="2">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="C1606" t="s" s="2">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="D1606" s="2"/>
     </row>
@@ -31254,10 +31257,10 @@
         <v>82</v>
       </c>
       <c r="B1607" t="s" s="2">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="C1607" t="s" s="2">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="D1607" s="2"/>
     </row>
@@ -31266,10 +31269,10 @@
         <v>82</v>
       </c>
       <c r="B1608" t="s" s="2">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C1608" t="s" s="2">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D1608" s="2"/>
     </row>
@@ -31278,10 +31281,10 @@
         <v>82</v>
       </c>
       <c r="B1609" t="s" s="2">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C1609" t="s" s="2">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="D1609" s="2"/>
     </row>
@@ -31290,10 +31293,10 @@
         <v>82</v>
       </c>
       <c r="B1610" t="s" s="2">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="C1610" t="s" s="2">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="D1610" s="2"/>
     </row>
@@ -31302,10 +31305,10 @@
         <v>82</v>
       </c>
       <c r="B1611" t="s" s="2">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="C1611" t="s" s="2">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="D1611" s="2"/>
     </row>
@@ -31314,10 +31317,10 @@
         <v>82</v>
       </c>
       <c r="B1612" t="s" s="2">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="C1612" t="s" s="2">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="D1612" s="2"/>
     </row>
@@ -31326,10 +31329,10 @@
         <v>82</v>
       </c>
       <c r="B1613" t="s" s="2">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C1613" t="s" s="2">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="D1613" s="2"/>
     </row>
@@ -31338,10 +31341,10 @@
         <v>82</v>
       </c>
       <c r="B1614" t="s" s="2">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C1614" t="s" s="2">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1614" s="2"/>
     </row>
@@ -31350,10 +31353,10 @@
         <v>82</v>
       </c>
       <c r="B1615" t="s" s="2">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C1615" t="s" s="2">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="D1615" s="2"/>
     </row>
@@ -31362,10 +31365,10 @@
         <v>82</v>
       </c>
       <c r="B1616" t="s" s="2">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C1616" t="s" s="2">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="D1616" s="2"/>
     </row>
@@ -31374,10 +31377,10 @@
         <v>82</v>
       </c>
       <c r="B1617" t="s" s="2">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C1617" t="s" s="2">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="D1617" s="2"/>
     </row>
@@ -31386,10 +31389,10 @@
         <v>82</v>
       </c>
       <c r="B1618" t="s" s="2">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C1618" t="s" s="2">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="D1618" s="2"/>
     </row>
@@ -31398,10 +31401,10 @@
         <v>82</v>
       </c>
       <c r="B1619" t="s" s="2">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C1619" t="s" s="2">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="D1619" s="2"/>
     </row>
@@ -31410,10 +31413,10 @@
         <v>82</v>
       </c>
       <c r="B1620" t="s" s="2">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="C1620" t="s" s="2">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="D1620" s="2"/>
     </row>
@@ -31422,10 +31425,10 @@
         <v>82</v>
       </c>
       <c r="B1621" t="s" s="2">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="C1621" t="s" s="2">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="D1621" s="2"/>
     </row>
@@ -31434,10 +31437,10 @@
         <v>82</v>
       </c>
       <c r="B1622" t="s" s="2">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="C1622" t="s" s="2">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="D1622" s="2"/>
     </row>
@@ -31446,10 +31449,10 @@
         <v>82</v>
       </c>
       <c r="B1623" t="s" s="2">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="C1623" t="s" s="2">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="D1623" s="2"/>
     </row>
@@ -31458,10 +31461,10 @@
         <v>82</v>
       </c>
       <c r="B1624" t="s" s="2">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="C1624" t="s" s="2">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="D1624" s="2"/>
     </row>
@@ -31470,10 +31473,10 @@
         <v>82</v>
       </c>
       <c r="B1625" t="s" s="2">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C1625" t="s" s="2">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="D1625" s="2"/>
     </row>
@@ -31482,10 +31485,10 @@
         <v>82</v>
       </c>
       <c r="B1626" t="s" s="2">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="C1626" t="s" s="2">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="D1626" s="2"/>
     </row>
@@ -31494,10 +31497,10 @@
         <v>82</v>
       </c>
       <c r="B1627" t="s" s="2">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="C1627" t="s" s="2">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="D1627" s="2"/>
     </row>
@@ -31506,10 +31509,10 @@
         <v>82</v>
       </c>
       <c r="B1628" t="s" s="2">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C1628" t="s" s="2">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="D1628" s="2"/>
     </row>
@@ -31518,10 +31521,10 @@
         <v>82</v>
       </c>
       <c r="B1629" t="s" s="2">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="C1629" t="s" s="2">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="D1629" s="2"/>
     </row>
@@ -31530,10 +31533,10 @@
         <v>82</v>
       </c>
       <c r="B1630" t="s" s="2">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="C1630" t="s" s="2">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="D1630" s="2"/>
     </row>
@@ -31542,10 +31545,10 @@
         <v>82</v>
       </c>
       <c r="B1631" t="s" s="2">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="C1631" t="s" s="2">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="D1631" s="2"/>
     </row>
@@ -31554,10 +31557,10 @@
         <v>82</v>
       </c>
       <c r="B1632" t="s" s="2">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1632" t="s" s="2">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="D1632" s="2"/>
     </row>
@@ -31566,10 +31569,10 @@
         <v>82</v>
       </c>
       <c r="B1633" t="s" s="2">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="C1633" t="s" s="2">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="D1633" s="2"/>
     </row>
@@ -31578,10 +31581,10 @@
         <v>82</v>
       </c>
       <c r="B1634" t="s" s="2">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="C1634" t="s" s="2">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="D1634" s="2"/>
     </row>
@@ -31590,10 +31593,10 @@
         <v>82</v>
       </c>
       <c r="B1635" t="s" s="2">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1635" t="s" s="2">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="D1635" s="2"/>
     </row>
@@ -31602,10 +31605,10 @@
         <v>82</v>
       </c>
       <c r="B1636" t="s" s="2">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="C1636" t="s" s="2">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="D1636" s="2"/>
     </row>
@@ -31614,10 +31617,10 @@
         <v>82</v>
       </c>
       <c r="B1637" t="s" s="2">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C1637" t="s" s="2">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="D1637" s="2"/>
     </row>
@@ -31626,10 +31629,10 @@
         <v>82</v>
       </c>
       <c r="B1638" t="s" s="2">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="C1638" t="s" s="2">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="D1638" s="2"/>
     </row>
@@ -31638,10 +31641,10 @@
         <v>82</v>
       </c>
       <c r="B1639" t="s" s="2">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C1639" t="s" s="2">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="D1639" s="2"/>
     </row>
@@ -31650,10 +31653,10 @@
         <v>82</v>
       </c>
       <c r="B1640" t="s" s="2">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="C1640" t="s" s="2">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="D1640" s="2"/>
     </row>
@@ -31662,10 +31665,10 @@
         <v>82</v>
       </c>
       <c r="B1641" t="s" s="2">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="C1641" t="s" s="2">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="D1641" s="2"/>
     </row>
@@ -31674,10 +31677,10 @@
         <v>82</v>
       </c>
       <c r="B1642" t="s" s="2">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="C1642" t="s" s="2">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="D1642" s="2"/>
     </row>
@@ -31686,10 +31689,10 @@
         <v>82</v>
       </c>
       <c r="B1643" t="s" s="2">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="C1643" t="s" s="2">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="D1643" s="2"/>
     </row>
@@ -31698,10 +31701,10 @@
         <v>82</v>
       </c>
       <c r="B1644" t="s" s="2">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C1644" t="s" s="2">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="D1644" s="2"/>
     </row>
@@ -31710,10 +31713,10 @@
         <v>82</v>
       </c>
       <c r="B1645" t="s" s="2">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="C1645" t="s" s="2">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="D1645" s="2"/>
     </row>
@@ -31722,10 +31725,10 @@
         <v>82</v>
       </c>
       <c r="B1646" t="s" s="2">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="C1646" t="s" s="2">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="D1646" s="2"/>
     </row>
@@ -31734,10 +31737,10 @@
         <v>82</v>
       </c>
       <c r="B1647" t="s" s="2">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="C1647" t="s" s="2">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="D1647" s="2"/>
     </row>
@@ -31746,10 +31749,10 @@
         <v>82</v>
       </c>
       <c r="B1648" t="s" s="2">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="C1648" t="s" s="2">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="D1648" s="2"/>
     </row>
@@ -31758,10 +31761,10 @@
         <v>82</v>
       </c>
       <c r="B1649" t="s" s="2">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="C1649" t="s" s="2">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="D1649" s="2"/>
     </row>
@@ -31770,10 +31773,10 @@
         <v>82</v>
       </c>
       <c r="B1650" t="s" s="2">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="C1650" t="s" s="2">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="D1650" s="2"/>
     </row>
@@ -31782,10 +31785,10 @@
         <v>82</v>
       </c>
       <c r="B1651" t="s" s="2">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="C1651" t="s" s="2">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1651" s="2"/>
     </row>
@@ -31794,10 +31797,10 @@
         <v>82</v>
       </c>
       <c r="B1652" t="s" s="2">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="C1652" t="s" s="2">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="D1652" s="2"/>
     </row>
@@ -31806,10 +31809,10 @@
         <v>82</v>
       </c>
       <c r="B1653" t="s" s="2">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C1653" t="s" s="2">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D1653" s="2"/>
     </row>
@@ -31818,10 +31821,10 @@
         <v>82</v>
       </c>
       <c r="B1654" t="s" s="2">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="C1654" t="s" s="2">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="D1654" s="2"/>
     </row>
@@ -31830,10 +31833,10 @@
         <v>82</v>
       </c>
       <c r="B1655" t="s" s="2">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="C1655" t="s" s="2">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="D1655" s="2"/>
     </row>
@@ -31842,10 +31845,10 @@
         <v>82</v>
       </c>
       <c r="B1656" t="s" s="2">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C1656" t="s" s="2">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="D1656" s="2"/>
     </row>
@@ -31854,10 +31857,10 @@
         <v>82</v>
       </c>
       <c r="B1657" t="s" s="2">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="C1657" t="s" s="2">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="D1657" s="2"/>
     </row>
@@ -31866,10 +31869,10 @@
         <v>82</v>
       </c>
       <c r="B1658" t="s" s="2">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="C1658" t="s" s="2">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="D1658" s="2"/>
     </row>
@@ -31878,10 +31881,10 @@
         <v>82</v>
       </c>
       <c r="B1659" t="s" s="2">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C1659" t="s" s="2">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="D1659" s="2"/>
     </row>
@@ -31890,10 +31893,10 @@
         <v>82</v>
       </c>
       <c r="B1660" t="s" s="2">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="C1660" t="s" s="2">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="D1660" s="2"/>
     </row>
@@ -31902,10 +31905,10 @@
         <v>82</v>
       </c>
       <c r="B1661" t="s" s="2">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="C1661" t="s" s="2">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="D1661" s="2"/>
     </row>
@@ -31914,10 +31917,10 @@
         <v>82</v>
       </c>
       <c r="B1662" t="s" s="2">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="C1662" t="s" s="2">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="D1662" s="2"/>
     </row>
@@ -31926,10 +31929,10 @@
         <v>82</v>
       </c>
       <c r="B1663" t="s" s="2">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="C1663" t="s" s="2">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="D1663" s="2"/>
     </row>
@@ -31938,10 +31941,10 @@
         <v>82</v>
       </c>
       <c r="B1664" t="s" s="2">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="C1664" t="s" s="2">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="D1664" s="2"/>
     </row>
@@ -31950,10 +31953,10 @@
         <v>82</v>
       </c>
       <c r="B1665" t="s" s="2">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="C1665" t="s" s="2">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="D1665" s="2"/>
     </row>
@@ -31962,10 +31965,10 @@
         <v>82</v>
       </c>
       <c r="B1666" t="s" s="2">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="C1666" t="s" s="2">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="D1666" s="2"/>
     </row>
@@ -31974,10 +31977,10 @@
         <v>82</v>
       </c>
       <c r="B1667" t="s" s="2">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="C1667" t="s" s="2">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="D1667" s="2"/>
     </row>
@@ -31986,10 +31989,10 @@
         <v>82</v>
       </c>
       <c r="B1668" t="s" s="2">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="C1668" t="s" s="2">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="D1668" s="2"/>
     </row>
@@ -31998,10 +32001,10 @@
         <v>82</v>
       </c>
       <c r="B1669" t="s" s="2">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="C1669" t="s" s="2">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="D1669" s="2"/>
     </row>
@@ -32010,10 +32013,10 @@
         <v>82</v>
       </c>
       <c r="B1670" t="s" s="2">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="C1670" t="s" s="2">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="D1670" s="2"/>
     </row>
@@ -32022,10 +32025,10 @@
         <v>82</v>
       </c>
       <c r="B1671" t="s" s="2">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="C1671" t="s" s="2">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="D1671" s="2"/>
     </row>
@@ -32034,10 +32037,10 @@
         <v>82</v>
       </c>
       <c r="B1672" t="s" s="2">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="C1672" t="s" s="2">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="D1672" s="2"/>
     </row>
@@ -32046,10 +32049,10 @@
         <v>82</v>
       </c>
       <c r="B1673" t="s" s="2">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="C1673" t="s" s="2">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="D1673" s="2"/>
     </row>
@@ -32058,10 +32061,10 @@
         <v>82</v>
       </c>
       <c r="B1674" t="s" s="2">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="C1674" t="s" s="2">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="D1674" s="2"/>
     </row>
@@ -32070,10 +32073,10 @@
         <v>82</v>
       </c>
       <c r="B1675" t="s" s="2">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="C1675" t="s" s="2">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="D1675" s="2"/>
     </row>
@@ -32082,10 +32085,10 @@
         <v>82</v>
       </c>
       <c r="B1676" t="s" s="2">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="C1676" t="s" s="2">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="D1676" s="2"/>
     </row>
@@ -32094,10 +32097,10 @@
         <v>82</v>
       </c>
       <c r="B1677" t="s" s="2">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="C1677" t="s" s="2">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1677" s="2"/>
     </row>
@@ -32106,10 +32109,10 @@
         <v>82</v>
       </c>
       <c r="B1678" t="s" s="2">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="C1678" t="s" s="2">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="D1678" s="2"/>
     </row>
@@ -32118,10 +32121,10 @@
         <v>82</v>
       </c>
       <c r="B1679" t="s" s="2">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="C1679" t="s" s="2">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="D1679" s="2"/>
     </row>
@@ -32130,10 +32133,10 @@
         <v>82</v>
       </c>
       <c r="B1680" t="s" s="2">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="C1680" t="s" s="2">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="D1680" s="2"/>
     </row>
@@ -32142,10 +32145,10 @@
         <v>82</v>
       </c>
       <c r="B1681" t="s" s="2">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C1681" t="s" s="2">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="D1681" s="2"/>
     </row>
@@ -32154,10 +32157,10 @@
         <v>82</v>
       </c>
       <c r="B1682" t="s" s="2">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C1682" t="s" s="2">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="D1682" s="2"/>
     </row>
@@ -32166,10 +32169,10 @@
         <v>82</v>
       </c>
       <c r="B1683" t="s" s="2">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="C1683" t="s" s="2">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="D1683" s="2"/>
     </row>
@@ -32178,10 +32181,10 @@
         <v>82</v>
       </c>
       <c r="B1684" t="s" s="2">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="C1684" t="s" s="2">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="D1684" s="2"/>
     </row>
@@ -32190,10 +32193,10 @@
         <v>82</v>
       </c>
       <c r="B1685" t="s" s="2">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="C1685" t="s" s="2">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="D1685" s="2"/>
     </row>
@@ -32202,10 +32205,10 @@
         <v>82</v>
       </c>
       <c r="B1686" t="s" s="2">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="C1686" t="s" s="2">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="D1686" s="2"/>
     </row>
@@ -32214,10 +32217,10 @@
         <v>82</v>
       </c>
       <c r="B1687" t="s" s="2">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="C1687" t="s" s="2">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="D1687" s="2"/>
     </row>
@@ -32226,10 +32229,10 @@
         <v>82</v>
       </c>
       <c r="B1688" t="s" s="2">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C1688" t="s" s="2">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="D1688" s="2"/>
     </row>
@@ -32238,10 +32241,10 @@
         <v>82</v>
       </c>
       <c r="B1689" t="s" s="2">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C1689" t="s" s="2">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="D1689" s="2"/>
     </row>
@@ -32250,10 +32253,10 @@
         <v>82</v>
       </c>
       <c r="B1690" t="s" s="2">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C1690" t="s" s="2">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="D1690" s="2"/>
     </row>
@@ -32262,10 +32265,10 @@
         <v>82</v>
       </c>
       <c r="B1691" t="s" s="2">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1691" t="s" s="2">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="D1691" s="2"/>
     </row>
@@ -32274,10 +32277,10 @@
         <v>82</v>
       </c>
       <c r="B1692" t="s" s="2">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C1692" t="s" s="2">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="D1692" s="2"/>
     </row>
@@ -32286,10 +32289,10 @@
         <v>82</v>
       </c>
       <c r="B1693" t="s" s="2">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1693" t="s" s="2">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="D1693" s="2"/>
     </row>
@@ -32298,10 +32301,10 @@
         <v>82</v>
       </c>
       <c r="B1694" t="s" s="2">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C1694" t="s" s="2">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="D1694" s="2"/>
     </row>
@@ -32310,10 +32313,10 @@
         <v>82</v>
       </c>
       <c r="B1695" t="s" s="2">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="C1695" t="s" s="2">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="D1695" s="2"/>
     </row>
@@ -32322,10 +32325,10 @@
         <v>82</v>
       </c>
       <c r="B1696" t="s" s="2">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="C1696" t="s" s="2">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="D1696" s="2"/>
     </row>
@@ -32334,10 +32337,10 @@
         <v>82</v>
       </c>
       <c r="B1697" t="s" s="2">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="C1697" t="s" s="2">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="D1697" s="2"/>
     </row>
@@ -32346,10 +32349,10 @@
         <v>82</v>
       </c>
       <c r="B1698" t="s" s="2">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="C1698" t="s" s="2">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="D1698" s="2"/>
     </row>
@@ -32358,10 +32361,10 @@
         <v>82</v>
       </c>
       <c r="B1699" t="s" s="2">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="C1699" t="s" s="2">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="D1699" s="2"/>
     </row>
@@ -32370,10 +32373,10 @@
         <v>82</v>
       </c>
       <c r="B1700" t="s" s="2">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C1700" t="s" s="2">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="D1700" s="2"/>
     </row>
@@ -32382,10 +32385,10 @@
         <v>82</v>
       </c>
       <c r="B1701" t="s" s="2">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="C1701" t="s" s="2">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="D1701" s="2"/>
     </row>
@@ -32394,10 +32397,10 @@
         <v>82</v>
       </c>
       <c r="B1702" t="s" s="2">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="C1702" t="s" s="2">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="D1702" s="2"/>
     </row>
@@ -32406,10 +32409,10 @@
         <v>82</v>
       </c>
       <c r="B1703" t="s" s="2">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C1703" t="s" s="2">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="D1703" s="2"/>
     </row>
@@ -32418,10 +32421,10 @@
         <v>82</v>
       </c>
       <c r="B1704" t="s" s="2">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="C1704" t="s" s="2">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="D1704" s="2"/>
     </row>
@@ -32430,10 +32433,10 @@
         <v>82</v>
       </c>
       <c r="B1705" t="s" s="2">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="C1705" t="s" s="2">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="D1705" s="2"/>
     </row>
@@ -32442,10 +32445,10 @@
         <v>82</v>
       </c>
       <c r="B1706" t="s" s="2">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="C1706" t="s" s="2">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="D1706" s="2"/>
     </row>
@@ -32454,10 +32457,10 @@
         <v>82</v>
       </c>
       <c r="B1707" t="s" s="2">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="C1707" t="s" s="2">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D1707" s="2"/>
     </row>
@@ -32466,10 +32469,10 @@
         <v>82</v>
       </c>
       <c r="B1708" t="s" s="2">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="C1708" t="s" s="2">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="D1708" s="2"/>
     </row>
@@ -32478,10 +32481,10 @@
         <v>82</v>
       </c>
       <c r="B1709" t="s" s="2">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="C1709" t="s" s="2">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="D1709" s="2"/>
     </row>
@@ -32490,10 +32493,10 @@
         <v>82</v>
       </c>
       <c r="B1710" t="s" s="2">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="C1710" t="s" s="2">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="D1710" s="2"/>
     </row>
@@ -32502,10 +32505,10 @@
         <v>82</v>
       </c>
       <c r="B1711" t="s" s="2">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="C1711" t="s" s="2">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="D1711" s="2"/>
     </row>
@@ -32514,10 +32517,10 @@
         <v>82</v>
       </c>
       <c r="B1712" t="s" s="2">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="C1712" t="s" s="2">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="D1712" s="2"/>
     </row>
@@ -32526,10 +32529,10 @@
         <v>82</v>
       </c>
       <c r="B1713" t="s" s="2">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="C1713" t="s" s="2">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="D1713" s="2"/>
     </row>
@@ -32538,10 +32541,10 @@
         <v>82</v>
       </c>
       <c r="B1714" t="s" s="2">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="C1714" t="s" s="2">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="D1714" s="2"/>
     </row>
@@ -32550,10 +32553,10 @@
         <v>82</v>
       </c>
       <c r="B1715" t="s" s="2">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="C1715" t="s" s="2">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="D1715" s="2"/>
     </row>
@@ -32562,10 +32565,10 @@
         <v>82</v>
       </c>
       <c r="B1716" t="s" s="2">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="C1716" t="s" s="2">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="D1716" s="2"/>
     </row>
@@ -32574,10 +32577,10 @@
         <v>82</v>
       </c>
       <c r="B1717" t="s" s="2">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C1717" t="s" s="2">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="D1717" s="2"/>
     </row>
@@ -32586,10 +32589,10 @@
         <v>82</v>
       </c>
       <c r="B1718" t="s" s="2">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="C1718" t="s" s="2">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="D1718" s="2"/>
     </row>
@@ -32598,10 +32601,10 @@
         <v>82</v>
       </c>
       <c r="B1719" t="s" s="2">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="C1719" t="s" s="2">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="D1719" s="2"/>
     </row>
@@ -32610,10 +32613,10 @@
         <v>82</v>
       </c>
       <c r="B1720" t="s" s="2">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C1720" t="s" s="2">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="D1720" s="2"/>
     </row>
@@ -32622,10 +32625,10 @@
         <v>82</v>
       </c>
       <c r="B1721" t="s" s="2">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="C1721" t="s" s="2">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="D1721" s="2"/>
     </row>
@@ -32634,10 +32637,10 @@
         <v>82</v>
       </c>
       <c r="B1722" t="s" s="2">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="C1722" t="s" s="2">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="D1722" s="2"/>
     </row>
@@ -32646,10 +32649,10 @@
         <v>82</v>
       </c>
       <c r="B1723" t="s" s="2">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="C1723" t="s" s="2">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="D1723" s="2"/>
     </row>
@@ -32658,10 +32661,10 @@
         <v>82</v>
       </c>
       <c r="B1724" t="s" s="2">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="C1724" t="s" s="2">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="D1724" s="2"/>
     </row>
@@ -32670,10 +32673,10 @@
         <v>82</v>
       </c>
       <c r="B1725" t="s" s="2">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="C1725" t="s" s="2">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="D1725" s="2"/>
     </row>
@@ -32682,10 +32685,10 @@
         <v>82</v>
       </c>
       <c r="B1726" t="s" s="2">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="C1726" t="s" s="2">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="D1726" s="2"/>
     </row>
@@ -32694,10 +32697,10 @@
         <v>82</v>
       </c>
       <c r="B1727" t="s" s="2">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C1727" t="s" s="2">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="D1727" s="2"/>
     </row>
@@ -32706,10 +32709,10 @@
         <v>82</v>
       </c>
       <c r="B1728" t="s" s="2">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="C1728" t="s" s="2">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="D1728" s="2"/>
     </row>
@@ -32718,10 +32721,10 @@
         <v>82</v>
       </c>
       <c r="B1729" t="s" s="2">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="C1729" t="s" s="2">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="D1729" s="2"/>
     </row>
@@ -32730,10 +32733,10 @@
         <v>82</v>
       </c>
       <c r="B1730" t="s" s="2">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1730" t="s" s="2">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="D1730" s="2"/>
     </row>
@@ -32742,10 +32745,10 @@
         <v>82</v>
       </c>
       <c r="B1731" t="s" s="2">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C1731" t="s" s="2">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="D1731" s="2"/>
     </row>
@@ -32754,10 +32757,10 @@
         <v>82</v>
       </c>
       <c r="B1732" t="s" s="2">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="C1732" t="s" s="2">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="D1732" s="2"/>
     </row>
@@ -32766,10 +32769,10 @@
         <v>82</v>
       </c>
       <c r="B1733" t="s" s="2">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="C1733" t="s" s="2">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="D1733" s="2"/>
     </row>
@@ -32778,10 +32781,10 @@
         <v>82</v>
       </c>
       <c r="B1734" t="s" s="2">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="C1734" t="s" s="2">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="D1734" s="2"/>
     </row>
@@ -32790,10 +32793,10 @@
         <v>82</v>
       </c>
       <c r="B1735" t="s" s="2">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="C1735" t="s" s="2">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="D1735" s="2"/>
     </row>
@@ -32802,10 +32805,10 @@
         <v>82</v>
       </c>
       <c r="B1736" t="s" s="2">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="C1736" t="s" s="2">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="D1736" s="2"/>
     </row>
@@ -32814,10 +32817,10 @@
         <v>82</v>
       </c>
       <c r="B1737" t="s" s="2">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="C1737" t="s" s="2">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="D1737" s="2"/>
     </row>
@@ -32826,10 +32829,10 @@
         <v>82</v>
       </c>
       <c r="B1738" t="s" s="2">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C1738" t="s" s="2">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="D1738" s="2"/>
     </row>
@@ -32838,10 +32841,10 @@
         <v>82</v>
       </c>
       <c r="B1739" t="s" s="2">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="C1739" t="s" s="2">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="D1739" s="2"/>
     </row>
@@ -32850,10 +32853,10 @@
         <v>82</v>
       </c>
       <c r="B1740" t="s" s="2">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C1740" t="s" s="2">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="D1740" s="2"/>
     </row>
@@ -32862,10 +32865,10 @@
         <v>82</v>
       </c>
       <c r="B1741" t="s" s="2">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C1741" t="s" s="2">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="D1741" s="2"/>
     </row>
@@ -32874,10 +32877,10 @@
         <v>82</v>
       </c>
       <c r="B1742" t="s" s="2">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C1742" t="s" s="2">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="D1742" s="2"/>
     </row>
@@ -32886,10 +32889,10 @@
         <v>82</v>
       </c>
       <c r="B1743" t="s" s="2">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C1743" t="s" s="2">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="D1743" s="2"/>
     </row>
@@ -32898,10 +32901,10 @@
         <v>82</v>
       </c>
       <c r="B1744" t="s" s="2">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="C1744" t="s" s="2">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="D1744" s="2"/>
     </row>
@@ -32910,10 +32913,10 @@
         <v>82</v>
       </c>
       <c r="B1745" t="s" s="2">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="C1745" t="s" s="2">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="D1745" s="2"/>
     </row>
@@ -32922,10 +32925,10 @@
         <v>82</v>
       </c>
       <c r="B1746" t="s" s="2">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="C1746" t="s" s="2">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="D1746" s="2"/>
     </row>
@@ -32934,10 +32937,10 @@
         <v>82</v>
       </c>
       <c r="B1747" t="s" s="2">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="C1747" t="s" s="2">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="D1747" s="2"/>
     </row>
@@ -32946,10 +32949,10 @@
         <v>82</v>
       </c>
       <c r="B1748" t="s" s="2">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="C1748" t="s" s="2">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="D1748" s="2"/>
     </row>
@@ -32958,10 +32961,10 @@
         <v>82</v>
       </c>
       <c r="B1749" t="s" s="2">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C1749" t="s" s="2">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="D1749" s="2"/>
     </row>
@@ -32970,10 +32973,10 @@
         <v>82</v>
       </c>
       <c r="B1750" t="s" s="2">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="C1750" t="s" s="2">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="D1750" s="2"/>
     </row>
@@ -32982,10 +32985,10 @@
         <v>82</v>
       </c>
       <c r="B1751" t="s" s="2">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C1751" t="s" s="2">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="D1751" s="2"/>
     </row>
@@ -32994,10 +32997,10 @@
         <v>82</v>
       </c>
       <c r="B1752" t="s" s="2">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C1752" t="s" s="2">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="D1752" s="2"/>
     </row>
@@ -33006,10 +33009,10 @@
         <v>82</v>
       </c>
       <c r="B1753" t="s" s="2">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C1753" t="s" s="2">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="D1753" s="2"/>
     </row>
@@ -33018,10 +33021,10 @@
         <v>82</v>
       </c>
       <c r="B1754" t="s" s="2">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="C1754" t="s" s="2">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="D1754" s="2"/>
     </row>
@@ -33030,10 +33033,10 @@
         <v>82</v>
       </c>
       <c r="B1755" t="s" s="2">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="C1755" t="s" s="2">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="D1755" s="2"/>
     </row>
@@ -33042,10 +33045,10 @@
         <v>82</v>
       </c>
       <c r="B1756" t="s" s="2">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="C1756" t="s" s="2">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="D1756" s="2"/>
     </row>
@@ -33054,10 +33057,10 @@
         <v>82</v>
       </c>
       <c r="B1757" t="s" s="2">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="C1757" t="s" s="2">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="D1757" s="2"/>
     </row>
@@ -33066,10 +33069,10 @@
         <v>82</v>
       </c>
       <c r="B1758" t="s" s="2">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="C1758" t="s" s="2">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="D1758" s="2"/>
     </row>
@@ -33078,10 +33081,10 @@
         <v>82</v>
       </c>
       <c r="B1759" t="s" s="2">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="C1759" t="s" s="2">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="D1759" s="2"/>
     </row>
@@ -33090,10 +33093,10 @@
         <v>82</v>
       </c>
       <c r="B1760" t="s" s="2">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="C1760" t="s" s="2">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="D1760" s="2"/>
     </row>
@@ -33102,10 +33105,10 @@
         <v>82</v>
       </c>
       <c r="B1761" t="s" s="2">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="C1761" t="s" s="2">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="D1761" s="2"/>
     </row>
@@ -33114,10 +33117,10 @@
         <v>82</v>
       </c>
       <c r="B1762" t="s" s="2">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="C1762" t="s" s="2">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="D1762" s="2"/>
     </row>
@@ -33126,10 +33129,10 @@
         <v>82</v>
       </c>
       <c r="B1763" t="s" s="2">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="C1763" t="s" s="2">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="D1763" s="2"/>
     </row>
@@ -33138,10 +33141,10 @@
         <v>82</v>
       </c>
       <c r="B1764" t="s" s="2">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="C1764" t="s" s="2">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="D1764" s="2"/>
     </row>
@@ -33150,10 +33153,10 @@
         <v>82</v>
       </c>
       <c r="B1765" t="s" s="2">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="C1765" t="s" s="2">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="D1765" s="2"/>
     </row>
@@ -33162,10 +33165,10 @@
         <v>82</v>
       </c>
       <c r="B1766" t="s" s="2">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="C1766" t="s" s="2">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="D1766" s="2"/>
     </row>
@@ -33174,10 +33177,10 @@
         <v>82</v>
       </c>
       <c r="B1767" t="s" s="2">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="C1767" t="s" s="2">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="D1767" s="2"/>
     </row>
@@ -33186,10 +33189,10 @@
         <v>82</v>
       </c>
       <c r="B1768" t="s" s="2">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C1768" t="s" s="2">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="D1768" s="2"/>
     </row>
@@ -33198,10 +33201,10 @@
         <v>82</v>
       </c>
       <c r="B1769" t="s" s="2">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="C1769" t="s" s="2">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="D1769" s="2"/>
     </row>
@@ -33210,10 +33213,10 @@
         <v>82</v>
       </c>
       <c r="B1770" t="s" s="2">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="C1770" t="s" s="2">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="D1770" s="2"/>
     </row>
@@ -33222,10 +33225,10 @@
         <v>82</v>
       </c>
       <c r="B1771" t="s" s="2">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C1771" t="s" s="2">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="D1771" s="2"/>
     </row>
@@ -33234,10 +33237,10 @@
         <v>82</v>
       </c>
       <c r="B1772" t="s" s="2">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="C1772" t="s" s="2">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="D1772" s="2"/>
     </row>
@@ -33246,10 +33249,10 @@
         <v>82</v>
       </c>
       <c r="B1773" t="s" s="2">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C1773" t="s" s="2">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="D1773" s="2"/>
     </row>
@@ -33258,10 +33261,10 @@
         <v>82</v>
       </c>
       <c r="B1774" t="s" s="2">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="C1774" t="s" s="2">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="D1774" s="2"/>
     </row>
@@ -33270,10 +33273,10 @@
         <v>82</v>
       </c>
       <c r="B1775" t="s" s="2">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C1775" t="s" s="2">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D1775" s="2"/>
     </row>
@@ -33282,10 +33285,10 @@
         <v>82</v>
       </c>
       <c r="B1776" t="s" s="2">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="C1776" t="s" s="2">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="D1776" s="2"/>
     </row>
@@ -33294,10 +33297,10 @@
         <v>82</v>
       </c>
       <c r="B1777" t="s" s="2">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="C1777" t="s" s="2">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="D1777" s="2"/>
     </row>
@@ -33306,10 +33309,10 @@
         <v>82</v>
       </c>
       <c r="B1778" t="s" s="2">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C1778" t="s" s="2">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="D1778" s="2"/>
     </row>
@@ -33318,10 +33321,10 @@
         <v>82</v>
       </c>
       <c r="B1779" t="s" s="2">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="C1779" t="s" s="2">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="D1779" s="2"/>
     </row>
@@ -33330,10 +33333,10 @@
         <v>82</v>
       </c>
       <c r="B1780" t="s" s="2">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="C1780" t="s" s="2">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="D1780" s="2"/>
     </row>
@@ -33342,10 +33345,10 @@
         <v>82</v>
       </c>
       <c r="B1781" t="s" s="2">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C1781" t="s" s="2">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="D1781" s="2"/>
     </row>
@@ -33354,10 +33357,10 @@
         <v>82</v>
       </c>
       <c r="B1782" t="s" s="2">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="C1782" t="s" s="2">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="D1782" s="2"/>
     </row>
@@ -33366,10 +33369,10 @@
         <v>82</v>
       </c>
       <c r="B1783" t="s" s="2">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C1783" t="s" s="2">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="D1783" s="2"/>
     </row>
@@ -33378,10 +33381,10 @@
         <v>82</v>
       </c>
       <c r="B1784" t="s" s="2">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="C1784" t="s" s="2">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D1784" s="2"/>
     </row>
@@ -33390,10 +33393,10 @@
         <v>82</v>
       </c>
       <c r="B1785" t="s" s="2">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C1785" t="s" s="2">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D1785" s="2"/>
     </row>
@@ -33402,10 +33405,10 @@
         <v>82</v>
       </c>
       <c r="B1786" t="s" s="2">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="C1786" t="s" s="2">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="D1786" s="2"/>
     </row>
@@ -33414,10 +33417,10 @@
         <v>82</v>
       </c>
       <c r="B1787" t="s" s="2">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="C1787" t="s" s="2">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="D1787" s="2"/>
     </row>
@@ -33426,10 +33429,10 @@
         <v>82</v>
       </c>
       <c r="B1788" t="s" s="2">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="C1788" t="s" s="2">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="D1788" s="2"/>
     </row>
@@ -33438,10 +33441,10 @@
         <v>82</v>
       </c>
       <c r="B1789" t="s" s="2">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="C1789" t="s" s="2">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="D1789" s="2"/>
     </row>
@@ -33450,10 +33453,10 @@
         <v>82</v>
       </c>
       <c r="B1790" t="s" s="2">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="C1790" t="s" s="2">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="D1790" s="2"/>
     </row>
@@ -33462,10 +33465,10 @@
         <v>82</v>
       </c>
       <c r="B1791" t="s" s="2">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="C1791" t="s" s="2">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="D1791" s="2"/>
     </row>
@@ -33474,10 +33477,10 @@
         <v>82</v>
       </c>
       <c r="B1792" t="s" s="2">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="C1792" t="s" s="2">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="D1792" s="2"/>
     </row>
@@ -33486,10 +33489,10 @@
         <v>82</v>
       </c>
       <c r="B1793" t="s" s="2">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C1793" t="s" s="2">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="D1793" s="2"/>
     </row>
@@ -33498,10 +33501,10 @@
         <v>82</v>
       </c>
       <c r="B1794" t="s" s="2">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="C1794" t="s" s="2">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="D1794" s="2"/>
     </row>
@@ -33510,10 +33513,10 @@
         <v>82</v>
       </c>
       <c r="B1795" t="s" s="2">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="C1795" t="s" s="2">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="D1795" s="2"/>
     </row>
@@ -33522,10 +33525,10 @@
         <v>82</v>
       </c>
       <c r="B1796" t="s" s="2">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="C1796" t="s" s="2">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="D1796" s="2"/>
     </row>
@@ -33534,10 +33537,10 @@
         <v>82</v>
       </c>
       <c r="B1797" t="s" s="2">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="C1797" t="s" s="2">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="D1797" s="2"/>
     </row>
@@ -33546,10 +33549,10 @@
         <v>82</v>
       </c>
       <c r="B1798" t="s" s="2">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="C1798" t="s" s="2">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="D1798" s="2"/>
     </row>
@@ -33558,10 +33561,10 @@
         <v>82</v>
       </c>
       <c r="B1799" t="s" s="2">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C1799" t="s" s="2">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="D1799" s="2"/>
     </row>
@@ -33570,10 +33573,10 @@
         <v>82</v>
       </c>
       <c r="B1800" t="s" s="2">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C1800" t="s" s="2">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="D1800" s="2"/>
     </row>
@@ -33582,10 +33585,10 @@
         <v>82</v>
       </c>
       <c r="B1801" t="s" s="2">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="C1801" t="s" s="2">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="D1801" s="2"/>
     </row>
@@ -33594,10 +33597,10 @@
         <v>82</v>
       </c>
       <c r="B1802" t="s" s="2">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="C1802" t="s" s="2">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="D1802" s="2"/>
     </row>
@@ -33606,10 +33609,10 @@
         <v>82</v>
       </c>
       <c r="B1803" t="s" s="2">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="C1803" t="s" s="2">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="D1803" s="2"/>
     </row>
@@ -33618,10 +33621,10 @@
         <v>82</v>
       </c>
       <c r="B1804" t="s" s="2">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="C1804" t="s" s="2">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="D1804" s="2"/>
     </row>
@@ -33630,10 +33633,10 @@
         <v>82</v>
       </c>
       <c r="B1805" t="s" s="2">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="C1805" t="s" s="2">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="D1805" s="2"/>
     </row>
@@ -33642,10 +33645,10 @@
         <v>82</v>
       </c>
       <c r="B1806" t="s" s="2">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="C1806" t="s" s="2">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="D1806" s="2"/>
     </row>
@@ -33654,10 +33657,10 @@
         <v>82</v>
       </c>
       <c r="B1807" t="s" s="2">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="C1807" t="s" s="2">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="D1807" s="2"/>
     </row>
@@ -33666,10 +33669,10 @@
         <v>82</v>
       </c>
       <c r="B1808" t="s" s="2">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="C1808" t="s" s="2">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="D1808" s="2"/>
     </row>
@@ -33678,10 +33681,10 @@
         <v>82</v>
       </c>
       <c r="B1809" t="s" s="2">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="C1809" t="s" s="2">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="D1809" s="2"/>
     </row>
@@ -33690,10 +33693,10 @@
         <v>82</v>
       </c>
       <c r="B1810" t="s" s="2">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="C1810" t="s" s="2">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="D1810" s="2"/>
     </row>
@@ -33702,10 +33705,10 @@
         <v>82</v>
       </c>
       <c r="B1811" t="s" s="2">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="C1811" t="s" s="2">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="D1811" s="2"/>
     </row>
@@ -33714,10 +33717,10 @@
         <v>82</v>
       </c>
       <c r="B1812" t="s" s="2">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="C1812" t="s" s="2">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="D1812" s="2"/>
     </row>
@@ -33726,10 +33729,10 @@
         <v>82</v>
       </c>
       <c r="B1813" t="s" s="2">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="C1813" t="s" s="2">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="D1813" s="2"/>
     </row>
@@ -33738,10 +33741,10 @@
         <v>82</v>
       </c>
       <c r="B1814" t="s" s="2">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="C1814" t="s" s="2">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="D1814" s="2"/>
     </row>
@@ -33750,10 +33753,10 @@
         <v>82</v>
       </c>
       <c r="B1815" t="s" s="2">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="C1815" t="s" s="2">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="D1815" s="2"/>
     </row>
@@ -33762,10 +33765,10 @@
         <v>82</v>
       </c>
       <c r="B1816" t="s" s="2">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="C1816" t="s" s="2">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D1816" s="2"/>
     </row>
@@ -33774,10 +33777,10 @@
         <v>82</v>
       </c>
       <c r="B1817" t="s" s="2">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="C1817" t="s" s="2">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="D1817" s="2"/>
     </row>
@@ -33786,10 +33789,10 @@
         <v>82</v>
       </c>
       <c r="B1818" t="s" s="2">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="C1818" t="s" s="2">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="D1818" s="2"/>
     </row>
@@ -33798,10 +33801,10 @@
         <v>82</v>
       </c>
       <c r="B1819" t="s" s="2">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="C1819" t="s" s="2">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="D1819" s="2"/>
     </row>
@@ -33810,10 +33813,10 @@
         <v>82</v>
       </c>
       <c r="B1820" t="s" s="2">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="C1820" t="s" s="2">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="D1820" s="2"/>
     </row>
@@ -33822,10 +33825,10 @@
         <v>82</v>
       </c>
       <c r="B1821" t="s" s="2">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="C1821" t="s" s="2">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="D1821" s="2"/>
     </row>
@@ -33834,10 +33837,10 @@
         <v>82</v>
       </c>
       <c r="B1822" t="s" s="2">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="C1822" t="s" s="2">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="D1822" s="2"/>
     </row>
@@ -33846,10 +33849,10 @@
         <v>82</v>
       </c>
       <c r="B1823" t="s" s="2">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="C1823" t="s" s="2">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="D1823" s="2"/>
     </row>
@@ -33858,10 +33861,10 @@
         <v>82</v>
       </c>
       <c r="B1824" t="s" s="2">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="C1824" t="s" s="2">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="D1824" s="2"/>
     </row>
@@ -33870,10 +33873,10 @@
         <v>82</v>
       </c>
       <c r="B1825" t="s" s="2">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="C1825" t="s" s="2">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="D1825" s="2"/>
     </row>
@@ -33882,10 +33885,10 @@
         <v>82</v>
       </c>
       <c r="B1826" t="s" s="2">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="C1826" t="s" s="2">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="D1826" s="2"/>
     </row>
@@ -33894,10 +33897,10 @@
         <v>82</v>
       </c>
       <c r="B1827" t="s" s="2">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="C1827" t="s" s="2">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="D1827" s="2"/>
     </row>
@@ -33906,10 +33909,10 @@
         <v>82</v>
       </c>
       <c r="B1828" t="s" s="2">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="C1828" t="s" s="2">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="D1828" s="2"/>
     </row>
@@ -33918,10 +33921,10 @@
         <v>82</v>
       </c>
       <c r="B1829" t="s" s="2">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="C1829" t="s" s="2">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="D1829" s="2"/>
     </row>
@@ -33930,10 +33933,10 @@
         <v>82</v>
       </c>
       <c r="B1830" t="s" s="2">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="C1830" t="s" s="2">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="D1830" s="2"/>
     </row>
@@ -33942,10 +33945,10 @@
         <v>82</v>
       </c>
       <c r="B1831" t="s" s="2">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="C1831" t="s" s="2">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="D1831" s="2"/>
     </row>
@@ -33954,10 +33957,10 @@
         <v>82</v>
       </c>
       <c r="B1832" t="s" s="2">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="C1832" t="s" s="2">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="D1832" s="2"/>
     </row>
@@ -33966,10 +33969,10 @@
         <v>82</v>
       </c>
       <c r="B1833" t="s" s="2">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="C1833" t="s" s="2">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="D1833" s="2"/>
     </row>
@@ -33978,10 +33981,10 @@
         <v>82</v>
       </c>
       <c r="B1834" t="s" s="2">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="C1834" t="s" s="2">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="D1834" s="2"/>
     </row>
@@ -33990,10 +33993,10 @@
         <v>82</v>
       </c>
       <c r="B1835" t="s" s="2">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="C1835" t="s" s="2">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="D1835" s="2"/>
     </row>
@@ -34002,10 +34005,10 @@
         <v>82</v>
       </c>
       <c r="B1836" t="s" s="2">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="C1836" t="s" s="2">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="D1836" s="2"/>
     </row>
@@ -34014,10 +34017,10 @@
         <v>82</v>
       </c>
       <c r="B1837" t="s" s="2">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="C1837" t="s" s="2">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="D1837" s="2"/>
     </row>
@@ -34026,10 +34029,10 @@
         <v>82</v>
       </c>
       <c r="B1838" t="s" s="2">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="C1838" t="s" s="2">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="D1838" s="2"/>
     </row>
@@ -34038,10 +34041,10 @@
         <v>82</v>
       </c>
       <c r="B1839" t="s" s="2">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="C1839" t="s" s="2">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="D1839" s="2"/>
     </row>
@@ -34050,10 +34053,10 @@
         <v>82</v>
       </c>
       <c r="B1840" t="s" s="2">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="C1840" t="s" s="2">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="D1840" s="2"/>
     </row>
@@ -34062,10 +34065,10 @@
         <v>82</v>
       </c>
       <c r="B1841" t="s" s="2">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="C1841" t="s" s="2">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="D1841" s="2"/>
     </row>
@@ -34074,10 +34077,10 @@
         <v>82</v>
       </c>
       <c r="B1842" t="s" s="2">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="C1842" t="s" s="2">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D1842" s="2"/>
     </row>
@@ -34086,10 +34089,10 @@
         <v>82</v>
       </c>
       <c r="B1843" t="s" s="2">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="C1843" t="s" s="2">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="D1843" s="2"/>
     </row>
@@ -34098,10 +34101,10 @@
         <v>82</v>
       </c>
       <c r="B1844" t="s" s="2">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="C1844" t="s" s="2">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="D1844" s="2"/>
     </row>
@@ -34110,10 +34113,10 @@
         <v>82</v>
       </c>
       <c r="B1845" t="s" s="2">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="C1845" t="s" s="2">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="D1845" s="2"/>
     </row>
@@ -34122,10 +34125,10 @@
         <v>82</v>
       </c>
       <c r="B1846" t="s" s="2">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="C1846" t="s" s="2">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="D1846" s="2"/>
     </row>
@@ -34134,10 +34137,10 @@
         <v>82</v>
       </c>
       <c r="B1847" t="s" s="2">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="C1847" t="s" s="2">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="D1847" s="2"/>
     </row>
@@ -34146,10 +34149,10 @@
         <v>82</v>
       </c>
       <c r="B1848" t="s" s="2">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="C1848" t="s" s="2">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="D1848" s="2"/>
     </row>
@@ -34158,10 +34161,10 @@
         <v>82</v>
       </c>
       <c r="B1849" t="s" s="2">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="C1849" t="s" s="2">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="D1849" s="2"/>
     </row>
@@ -34170,10 +34173,10 @@
         <v>82</v>
       </c>
       <c r="B1850" t="s" s="2">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="C1850" t="s" s="2">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="D1850" s="2"/>
     </row>
@@ -34182,10 +34185,10 @@
         <v>82</v>
       </c>
       <c r="B1851" t="s" s="2">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="C1851" t="s" s="2">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="D1851" s="2"/>
     </row>
@@ -34194,10 +34197,10 @@
         <v>82</v>
       </c>
       <c r="B1852" t="s" s="2">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="C1852" t="s" s="2">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="D1852" s="2"/>
     </row>
@@ -34206,10 +34209,10 @@
         <v>82</v>
       </c>
       <c r="B1853" t="s" s="2">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="C1853" t="s" s="2">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="D1853" s="2"/>
     </row>
@@ -34218,10 +34221,10 @@
         <v>82</v>
       </c>
       <c r="B1854" t="s" s="2">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="C1854" t="s" s="2">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="D1854" s="2"/>
     </row>
@@ -34230,10 +34233,10 @@
         <v>82</v>
       </c>
       <c r="B1855" t="s" s="2">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="C1855" t="s" s="2">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="D1855" s="2"/>
     </row>
@@ -34242,10 +34245,10 @@
         <v>82</v>
       </c>
       <c r="B1856" t="s" s="2">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="C1856" t="s" s="2">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D1856" s="2"/>
     </row>
@@ -34254,10 +34257,10 @@
         <v>82</v>
       </c>
       <c r="B1857" t="s" s="2">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="C1857" t="s" s="2">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="D1857" s="2"/>
     </row>

--- a/www/terminologies/CodeSystem-terminologie-nuva.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-nuva.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="3795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="3861">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.939</t>
+    <t>1.0.1009</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T00:00:00+00:00</t>
+    <t>2025-10-02T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>1856</t>
+    <t>1889</t>
   </si>
   <si>
     <t>Code</t>
@@ -1031,7 +1031,7 @@
     <t>VAL378</t>
   </si>
   <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), 15 microgrammes</t>
+    <t>Valence hépatite B, antigène de surface recombinant du virus de l'hépatite B (Ag HBs), 15 microgrammes</t>
   </si>
   <si>
     <t>VAL112</t>
@@ -1541,7 +1541,7 @@
     <t>VAL114</t>
   </si>
   <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), 10 microgrammes</t>
+    <t>Valence hépatite B, antigène de surface recombinant du virus de l'hépatite B (Ag HBs), 10 microgrammes</t>
   </si>
   <si>
     <t>DIS031</t>
@@ -1631,7 +1631,7 @@
     <t>VAL115</t>
   </si>
   <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), 20 microgrammes</t>
+    <t>Valence hépatite B, antigène de surface recombinant du virus de l'hépatite B (Ag HBs), 20 microgrammes</t>
   </si>
   <si>
     <t>VAL248</t>
@@ -1724,6 +1724,12 @@
     <t>TETAMUN SSW</t>
   </si>
   <si>
+    <t>VAL423</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron LP.8.1, ARNm codant la protéine de pointe du SARS-CoV-2</t>
+  </si>
+  <si>
     <t>VAC1103</t>
   </si>
   <si>
@@ -1736,6 +1742,12 @@
     <t>HAEMOPHILUS INFLUENZAE B SII</t>
   </si>
   <si>
+    <t>VAC1454</t>
+  </si>
+  <si>
+    <t>PRIMAVAX</t>
+  </si>
+  <si>
     <t>VAC1369</t>
   </si>
   <si>
@@ -1796,12 +1808,24 @@
     <t>TICOVAC 0,25 mL</t>
   </si>
   <si>
+    <t>VAL424</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron LP.8.1, ARNm codant la protéine de pointe du SARS-CoV-2, 30 microgrammes</t>
+  </si>
+  <si>
     <t>VAC1322</t>
   </si>
   <si>
     <t>PNEUMOSIL</t>
   </si>
   <si>
+    <t>VAC1455</t>
+  </si>
+  <si>
+    <t>MENGIVAC A + C</t>
+  </si>
+  <si>
     <t>VAC1019</t>
   </si>
   <si>
@@ -1910,6 +1934,12 @@
     <t>Vaccin Pneumocoque non conjugué 15-valent, sans précision</t>
   </si>
   <si>
+    <t>VAC1452</t>
+  </si>
+  <si>
+    <t>SCI-B-VAC</t>
+  </si>
+  <si>
     <t>VAC1367</t>
   </si>
   <si>
@@ -1994,6 +2024,12 @@
     <t>HIB-IMMUNE</t>
   </si>
   <si>
+    <t>VAC1453</t>
+  </si>
+  <si>
+    <t>INVIVAC</t>
+  </si>
+  <si>
     <t>VAC1235</t>
   </si>
   <si>
@@ -2114,6 +2150,18 @@
     <t>GENEVAC-B 10 µg</t>
   </si>
   <si>
+    <t>VAC1458</t>
+  </si>
+  <si>
+    <t>TRIDIPIGEN</t>
+  </si>
+  <si>
+    <t>VAL427</t>
+  </si>
+  <si>
+    <t>Valence covid 19, ARNm codant un fragment de la protéine Spike du SARS-CoV-2</t>
+  </si>
+  <si>
     <t>VAC0213</t>
   </si>
   <si>
@@ -2162,12 +2210,24 @@
     <t>VACCINUM MORBILLORUM VIVUM</t>
   </si>
   <si>
+    <t>VAC1459</t>
+  </si>
+  <si>
+    <t>TRINFAGEN N0.1</t>
+  </si>
+  <si>
     <t>VAC0782</t>
   </si>
   <si>
     <t>RASILVAX</t>
   </si>
   <si>
+    <t>VAL428</t>
+  </si>
+  <si>
+    <t>Valence covid 19, ARNm codant les fragments NTD et RBD de la protéine Spike, variant Omicron LP.8.1</t>
+  </si>
+  <si>
     <t>VAC1108</t>
   </si>
   <si>
@@ -2216,6 +2276,12 @@
     <t>Vaccin Hépatite B et Paludisme, sans précision</t>
   </si>
   <si>
+    <t>VAC1456</t>
+  </si>
+  <si>
+    <t>WYVAC</t>
+  </si>
+  <si>
     <t>VAC0694</t>
   </si>
   <si>
@@ -2240,6 +2306,12 @@
     <t>Valence pneumocoque, polyosidique non conjuguée, sérotype 2</t>
   </si>
   <si>
+    <t>VAL425</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron LP.8.1, ARNm codant la protéine de pointe du SARS-CoV-2, 10 microgrammes</t>
+  </si>
+  <si>
     <t>VAC0211</t>
   </si>
   <si>
@@ -2282,6 +2354,12 @@
     <t>Vaccin Covid 19 VLP, sans précision</t>
   </si>
   <si>
+    <t>VAC1457</t>
+  </si>
+  <si>
+    <t>TETRA-SOLGEN</t>
+  </si>
+  <si>
     <t>VAC1239</t>
   </si>
   <si>
@@ -2312,6 +2390,12 @@
     <t>VAXNEUVANCE</t>
   </si>
   <si>
+    <t>VAL426</t>
+  </si>
+  <si>
+    <t>Valence covid 19, variant Omicron LP.8.1, ARNm codant la protéine de pointe du SARS-CoV-2, 3 microgrammes</t>
+  </si>
+  <si>
     <t>VAC0030</t>
   </si>
   <si>
@@ -2654,6 +2738,12 @@
     <t>Vaccin Hépatite B, monovalent pour les patients dialysés, sans précision</t>
   </si>
   <si>
+    <t>VAC1450</t>
+  </si>
+  <si>
+    <t>HEPACARE</t>
+  </si>
+  <si>
     <t>VAC1365</t>
   </si>
   <si>
@@ -2732,6 +2822,12 @@
     <t>Vaccin Hépatite E, sans précision</t>
   </si>
   <si>
+    <t>VAC1451</t>
+  </si>
+  <si>
+    <t>CHIROFLU</t>
+  </si>
+  <si>
     <t>VAC1015</t>
   </si>
   <si>
@@ -2807,7 +2903,7 @@
     <t>VAL291</t>
   </si>
   <si>
-    <t>Valence hépatite B, recombinante, trois antigènes (HbS, pré-S1 et pré-S2)</t>
+    <t>Valence hépatite B, ant!gène de surface recombinant, trois antigènes (Ag HbS, pré-S1 et pré-S2)</t>
   </si>
   <si>
     <t>VAC0914</t>
@@ -4319,7 +4415,7 @@
     <t>VAC0884</t>
   </si>
   <si>
-    <t>DIF PER TET ALL</t>
+    <t>DIF-PER-TET-ALL CHIRON</t>
   </si>
   <si>
     <t>VAC0799</t>
@@ -4454,6 +4550,12 @@
     <t>COMIRNATY KP.2 10 µg</t>
   </si>
   <si>
+    <t>VAC1466</t>
+  </si>
+  <si>
+    <t>COMIRNATY LP.8.1 30 µg</t>
+  </si>
+  <si>
     <t>VAC1200</t>
   </si>
   <si>
@@ -4532,6 +4634,12 @@
     <t>Vaccin Grippe, inactivé trivalent, haute dose, voie intradermique, sans précision</t>
   </si>
   <si>
+    <t>VAC1467</t>
+  </si>
+  <si>
+    <t>COMIRNATY LP.8.1 3 µg</t>
+  </si>
+  <si>
     <t>VAC1116</t>
   </si>
   <si>
@@ -4598,6 +4706,12 @@
     <t>Vaccin Covid 19 à sous-unité protéique, protéine de pointe recombinante, sans précision</t>
   </si>
   <si>
+    <t>VAC1464</t>
+  </si>
+  <si>
+    <t>FLUBRON VACCINE</t>
+  </si>
+  <si>
     <t>VAC1246</t>
   </si>
   <si>
@@ -4682,6 +4796,12 @@
     <t>COMIRNATY KP.2 3 µg</t>
   </si>
   <si>
+    <t>VAC1465</t>
+  </si>
+  <si>
+    <t>PERDIPIGEN</t>
+  </si>
+  <si>
     <t>VAC1029</t>
   </si>
   <si>
@@ -4922,6 +5042,12 @@
     <t>Vaccin Covid 19 bivalent à ARNm contre le virus originel et le variant Omicron BA.4/5, 5 microgrammes, sans précision</t>
   </si>
   <si>
+    <t>VAC1468</t>
+  </si>
+  <si>
+    <t>COMIRNATY LP.8.1 10 µg</t>
+  </si>
+  <si>
     <t>VAC0573</t>
   </si>
   <si>
@@ -5024,6 +5150,12 @@
     <t>KOSTAIVE</t>
   </si>
   <si>
+    <t>VAC1469</t>
+  </si>
+  <si>
+    <t>mNEXSPIKE</t>
+  </si>
+  <si>
     <t>VAL305</t>
   </si>
   <si>
@@ -5402,6 +5534,12 @@
     <t>Vaccin Hépatite A vivant atténué, sans précision</t>
   </si>
   <si>
+    <t>VAC1462</t>
+  </si>
+  <si>
+    <t>PNU-IMUNE 14</t>
+  </si>
+  <si>
     <t>VAC1026</t>
   </si>
   <si>
@@ -5510,6 +5648,12 @@
     <t>Vaccin Méningocoque ABCWY, sans précision</t>
   </si>
   <si>
+    <t>VAC1463</t>
+  </si>
+  <si>
+    <t>FREEZE-DRIED BCG VACCINE JAPAN</t>
+  </si>
+  <si>
     <t>VAL088</t>
   </si>
   <si>
@@ -5573,13 +5717,13 @@
     <t>VAL170</t>
   </si>
   <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), 5 microgrammes</t>
+    <t>Valence hépatite B, antigène de surface recombinant du virus de l'hépatite B (Ag HBs), 5 microgrammes</t>
   </si>
   <si>
     <t>VAC0926</t>
   </si>
   <si>
-    <t>FLUCELVAX TRIVALENT</t>
+    <t>FLUCELVAX</t>
   </si>
   <si>
     <t>VAC0708</t>
@@ -5588,6 +5732,12 @@
     <t>CORVAX12</t>
   </si>
   <si>
+    <t>VAC1460</t>
+  </si>
+  <si>
+    <t>SOLGEN</t>
+  </si>
+  <si>
     <t>VAC1242</t>
   </si>
   <si>
@@ -5678,6 +5828,12 @@
     <t>Vaccin Méningocoque C non conjugué, sans précision</t>
   </si>
   <si>
+    <t>VAC1461</t>
+  </si>
+  <si>
+    <t>DIFTET</t>
+  </si>
+  <si>
     <t>VAC1376</t>
   </si>
   <si>
@@ -7805,7 +7961,7 @@
     <t>VAL090</t>
   </si>
   <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), sans précision</t>
+    <t>Valence hépatite B, antigène de surface recombinant du virus de l'hépatite B (Ag HBs), sans précision</t>
   </si>
   <si>
     <t>VAL402</t>
@@ -7916,6 +8072,12 @@
     <t>JE-CV</t>
   </si>
   <si>
+    <t>VAC1470</t>
+  </si>
+  <si>
+    <t>Vaccin à ARNm contre la covid 19, subvariant Omicron LP.8.1, 3 microgrammes, dose pédiatrique (6 mois-4 ans)</t>
+  </si>
+  <si>
     <t>VAC0935</t>
   </si>
   <si>
@@ -8006,6 +8168,12 @@
     <t>Vaccin Leptospirose, trivalent, sans précision</t>
   </si>
   <si>
+    <t>VAC1471</t>
+  </si>
+  <si>
+    <t>Vaccin à ARNm contre la covid 19, subvariant Omicron LP.8.1, 30 microgrammes,  adulte (+ 12 ans)</t>
+  </si>
+  <si>
     <t>VAC1253</t>
   </si>
   <si>
@@ -8450,6 +8618,12 @@
     <t>Vaccin hexavalent DTCaHibPHepB - Diphtérie-Tétanos-Coqueluche-Hib-Polio-Hépatite B 10µg, sans précision</t>
   </si>
   <si>
+    <t>VAC1472</t>
+  </si>
+  <si>
+    <t>Vaccin à ARNm contre la covid 19, subvariant Omicron LP.8.1, 10 microgrammes, dose pédiatrique (5-11 ans)</t>
+  </si>
+  <si>
     <t>VAC1387</t>
   </si>
   <si>
@@ -8534,6 +8708,12 @@
     <t>SPIKEVAX BA.1 0,1 mg/mL dose 50 µg</t>
   </si>
   <si>
+    <t>VAC1473</t>
+  </si>
+  <si>
+    <t>Vaccin à ARNm contre la covid 19, codant un fragment de la protéine Spike du SARS-CoV-2, sous-variant Omicron LP.8.1</t>
+  </si>
+  <si>
     <t>VAC1037</t>
   </si>
   <si>
@@ -8693,7 +8873,7 @@
     <t>VAC0649</t>
   </si>
   <si>
-    <t>EFLUELDA QIV-HD</t>
+    <t>EFLUELDA TETRA</t>
   </si>
   <si>
     <t>VAC0516</t>
@@ -9065,7 +9245,7 @@
     <t>VAL012</t>
   </si>
   <si>
-    <t>Valence hépatite B, antigène de surface recombinante du virus de l'hépatite B (Ag HBs), 40 microgrammes (dose pour patient dialysé)</t>
+    <t>Valence hépatite B, antigène de surface recombinant du virus de l'hépatite B (Ag HBs), 40 microgrammes (dose pour patient dialysé)</t>
   </si>
   <si>
     <t>VAL230</t>
@@ -9554,6 +9734,12 @@
     <t>BIO-TT</t>
   </si>
   <si>
+    <t>VAC1448</t>
+  </si>
+  <si>
+    <t>BCG VACCINE MERCK</t>
+  </si>
+  <si>
     <t>VAC0771</t>
   </si>
   <si>
@@ -9644,6 +9830,12 @@
     <t>9-VALENT HPV VACCINE INNOVAX</t>
   </si>
   <si>
+    <t>VAC1449</t>
+  </si>
+  <si>
+    <t>DITANRIX-PEDIATRIC</t>
+  </si>
+  <si>
     <t>VAC1094</t>
   </si>
   <si>
@@ -10512,6 +10704,12 @@
   </si>
   <si>
     <t>MEASLES SII</t>
+  </si>
+  <si>
+    <t>VAC1447</t>
+  </si>
+  <si>
+    <t>VACCIN BCG SYNTHAVERSE</t>
   </si>
   <si>
     <t>VAL416</t>
@@ -11972,7 +12170,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1857"/>
+  <dimension ref="A1:D1890"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34264,6 +34462,402 @@
       </c>
       <c r="D1857" s="2"/>
     </row>
+    <row r="1858">
+      <c r="A1858" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1858" t="s" s="2">
+        <v>3795</v>
+      </c>
+      <c r="C1858" t="s" s="2">
+        <v>3796</v>
+      </c>
+      <c r="D1858" s="2"/>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1859" t="s" s="2">
+        <v>3797</v>
+      </c>
+      <c r="C1859" t="s" s="2">
+        <v>3798</v>
+      </c>
+      <c r="D1859" s="2"/>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1860" t="s" s="2">
+        <v>3799</v>
+      </c>
+      <c r="C1860" t="s" s="2">
+        <v>3800</v>
+      </c>
+      <c r="D1860" s="2"/>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1861" t="s" s="2">
+        <v>3801</v>
+      </c>
+      <c r="C1861" t="s" s="2">
+        <v>3802</v>
+      </c>
+      <c r="D1861" s="2"/>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1862" t="s" s="2">
+        <v>3803</v>
+      </c>
+      <c r="C1862" t="s" s="2">
+        <v>3804</v>
+      </c>
+      <c r="D1862" s="2"/>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1863" t="s" s="2">
+        <v>3805</v>
+      </c>
+      <c r="C1863" t="s" s="2">
+        <v>3806</v>
+      </c>
+      <c r="D1863" s="2"/>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1864" t="s" s="2">
+        <v>3807</v>
+      </c>
+      <c r="C1864" t="s" s="2">
+        <v>3808</v>
+      </c>
+      <c r="D1864" s="2"/>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1865" t="s" s="2">
+        <v>3809</v>
+      </c>
+      <c r="C1865" t="s" s="2">
+        <v>3810</v>
+      </c>
+      <c r="D1865" s="2"/>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1866" t="s" s="2">
+        <v>3811</v>
+      </c>
+      <c r="C1866" t="s" s="2">
+        <v>3812</v>
+      </c>
+      <c r="D1866" s="2"/>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1867" t="s" s="2">
+        <v>3813</v>
+      </c>
+      <c r="C1867" t="s" s="2">
+        <v>3814</v>
+      </c>
+      <c r="D1867" s="2"/>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1868" t="s" s="2">
+        <v>3815</v>
+      </c>
+      <c r="C1868" t="s" s="2">
+        <v>3816</v>
+      </c>
+      <c r="D1868" s="2"/>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1869" t="s" s="2">
+        <v>3817</v>
+      </c>
+      <c r="C1869" t="s" s="2">
+        <v>3818</v>
+      </c>
+      <c r="D1869" s="2"/>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1870" t="s" s="2">
+        <v>3819</v>
+      </c>
+      <c r="C1870" t="s" s="2">
+        <v>3820</v>
+      </c>
+      <c r="D1870" s="2"/>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1871" t="s" s="2">
+        <v>3821</v>
+      </c>
+      <c r="C1871" t="s" s="2">
+        <v>3822</v>
+      </c>
+      <c r="D1871" s="2"/>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1872" t="s" s="2">
+        <v>3823</v>
+      </c>
+      <c r="C1872" t="s" s="2">
+        <v>3824</v>
+      </c>
+      <c r="D1872" s="2"/>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1873" t="s" s="2">
+        <v>3825</v>
+      </c>
+      <c r="C1873" t="s" s="2">
+        <v>3826</v>
+      </c>
+      <c r="D1873" s="2"/>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1874" t="s" s="2">
+        <v>3827</v>
+      </c>
+      <c r="C1874" t="s" s="2">
+        <v>3828</v>
+      </c>
+      <c r="D1874" s="2"/>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1875" t="s" s="2">
+        <v>3829</v>
+      </c>
+      <c r="C1875" t="s" s="2">
+        <v>3830</v>
+      </c>
+      <c r="D1875" s="2"/>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1876" t="s" s="2">
+        <v>3831</v>
+      </c>
+      <c r="C1876" t="s" s="2">
+        <v>3832</v>
+      </c>
+      <c r="D1876" s="2"/>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1877" t="s" s="2">
+        <v>3833</v>
+      </c>
+      <c r="C1877" t="s" s="2">
+        <v>3834</v>
+      </c>
+      <c r="D1877" s="2"/>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1878" t="s" s="2">
+        <v>3835</v>
+      </c>
+      <c r="C1878" t="s" s="2">
+        <v>3836</v>
+      </c>
+      <c r="D1878" s="2"/>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1879" t="s" s="2">
+        <v>3837</v>
+      </c>
+      <c r="C1879" t="s" s="2">
+        <v>3838</v>
+      </c>
+      <c r="D1879" s="2"/>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1880" t="s" s="2">
+        <v>3839</v>
+      </c>
+      <c r="C1880" t="s" s="2">
+        <v>3840</v>
+      </c>
+      <c r="D1880" s="2"/>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1881" t="s" s="2">
+        <v>3841</v>
+      </c>
+      <c r="C1881" t="s" s="2">
+        <v>3842</v>
+      </c>
+      <c r="D1881" s="2"/>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1882" t="s" s="2">
+        <v>3843</v>
+      </c>
+      <c r="C1882" t="s" s="2">
+        <v>3844</v>
+      </c>
+      <c r="D1882" s="2"/>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1883" t="s" s="2">
+        <v>3845</v>
+      </c>
+      <c r="C1883" t="s" s="2">
+        <v>3846</v>
+      </c>
+      <c r="D1883" s="2"/>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1884" t="s" s="2">
+        <v>3847</v>
+      </c>
+      <c r="C1884" t="s" s="2">
+        <v>3848</v>
+      </c>
+      <c r="D1884" s="2"/>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1885" t="s" s="2">
+        <v>3849</v>
+      </c>
+      <c r="C1885" t="s" s="2">
+        <v>3850</v>
+      </c>
+      <c r="D1885" s="2"/>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1886" t="s" s="2">
+        <v>3851</v>
+      </c>
+      <c r="C1886" t="s" s="2">
+        <v>3852</v>
+      </c>
+      <c r="D1886" s="2"/>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1887" t="s" s="2">
+        <v>3853</v>
+      </c>
+      <c r="C1887" t="s" s="2">
+        <v>3854</v>
+      </c>
+      <c r="D1887" s="2"/>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1888" t="s" s="2">
+        <v>3855</v>
+      </c>
+      <c r="C1888" t="s" s="2">
+        <v>3856</v>
+      </c>
+      <c r="D1888" s="2"/>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1889" t="s" s="2">
+        <v>3857</v>
+      </c>
+      <c r="C1889" t="s" s="2">
+        <v>3858</v>
+      </c>
+      <c r="D1889" s="2"/>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B1890" t="s" s="2">
+        <v>3859</v>
+      </c>
+      <c r="C1890" t="s" s="2">
+        <v>3860</v>
+      </c>
+      <c r="D1890" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/www/terminologies/CodeSystem-terminologie-nuva.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-nuva.xlsx
@@ -40,7 +40,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1009</t>
+    <t>1.0.1042</t>
   </si>
   <si>
     <t>Name</t>
@@ -70,7 +70,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T00:00:00+00:00</t>
+    <t>2025-11-26T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,7 +130,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>1889</t>
+    <t>1899</t>
   </si>
   <si>
     <t>Code</t>
